--- a/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="沉香" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="咖啡" sheetId="4" r:id="rId4"/>
     <sheet name="主推品周况" sheetId="5" r:id="rId5"/>
     <sheet name="主推日况" sheetId="6" r:id="rId6"/>
-    <sheet name="刷单情况" sheetId="7" r:id="rId7"/>
-    <sheet name="刷单费用情况" sheetId="8" r:id="rId8"/>
+    <sheet name="618" sheetId="9" r:id="rId7"/>
+    <sheet name="刷单情况" sheetId="7" r:id="rId8"/>
+    <sheet name="刷单费用情况" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">主推日况!$A$1:$O$77</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="276">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,6 +1061,50 @@
   </si>
   <si>
     <t>d7/7/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加购商品数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品加购件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加购客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单商品件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品转化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,6 +1415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,7 +1435,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1888,11 +1946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1939,7 +1997,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="51">
         <v>20170516</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1956,7 +2014,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +2029,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1987,10 +2045,10 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>20170523</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2004,8 +2062,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2014,8 +2072,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2024,8 +2082,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2036,25 +2094,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="50">
+      <c r="A14" s="51">
         <v>20170524</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2071,8 +2129,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2090,8 +2148,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -2109,8 +2167,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2118,28 +2176,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50">
+      <c r="A21" s="51">
         <v>20170525</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2156,40 +2214,40 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50">
+      <c r="A24" s="51">
         <v>20170525</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50">
+      <c r="A27" s="51">
         <v>20170530</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -2200,21 +2258,21 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50">
+      <c r="A30" s="51">
         <v>20170601</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="27" t="s">
@@ -2225,21 +2283,21 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
     </row>
     <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:8" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50">
+      <c r="A33" s="51">
         <v>20170602</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -2250,21 +2308,21 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="51"/>
     </row>
     <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:8" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50">
+      <c r="A36" s="51">
         <v>20170605</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="42" t="s">
@@ -2275,21 +2333,21 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="51"/>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="50">
+      <c r="A39" s="51">
         <v>20170607</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="43" t="s">
@@ -2300,21 +2358,21 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:8" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:8" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50">
+      <c r="A42" s="51">
         <v>20170612</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="44" t="s">
@@ -2331,21 +2389,21 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="51"/>
     </row>
     <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:8" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="50">
+      <c r="A45" s="51">
         <v>20170613</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="48" t="s">
@@ -2356,14 +2414,44 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="48" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="50"/>
+      <c r="C46" s="51"/>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="51">
+        <v>20170619</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="51"/>
+      <c r="B49" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="A42:A43"/>
@@ -2380,15 +2468,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,11 +2477,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2453,7 +2532,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="51">
         <v>20170515</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2461,23 +2540,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>20170523</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2494,8 +2573,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2510,8 +2589,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2524,143 +2603,143 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="50">
+      <c r="A11" s="51">
         <v>20170524</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="51" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="50">
+      <c r="A15" s="51">
         <v>20170525</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50">
+      <c r="A19" s="51">
         <v>20170526</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -2831,8 +2910,42 @@
         <v>263</v>
       </c>
     </row>
+    <row r="36" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="50">
+        <v>20170619</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
@@ -2842,27 +2955,6 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2871,11 +2963,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2916,10 +3008,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="51">
         <v>20170523</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2933,8 +3025,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2943,8 +3035,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2953,11 +3045,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2974,8 +3066,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2987,8 +3079,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3001,13 +3093,13 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50">
+      <c r="A11" s="51">
         <v>20170524</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3015,11 +3107,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
@@ -3032,13 +3124,13 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50">
+      <c r="A14" s="51">
         <v>20170525</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3049,11 +3141,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="E15" s="4" t="s">
         <v>102</v>
       </c>
@@ -3070,13 +3162,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50">
+      <c r="A17" s="51">
         <v>20170526</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3087,11 +3179,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="E18" s="10" t="s">
         <v>101</v>
       </c>
@@ -3104,13 +3196,13 @@
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50">
+      <c r="A20" s="51">
         <v>20170530</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -3119,11 +3211,11 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="E21" s="17" t="s">
         <v>163</v>
       </c>
@@ -3136,13 +3228,13 @@
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50">
+      <c r="A23" s="51">
         <v>20170601</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="51" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -3156,11 +3248,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="E24" s="27" t="s">
         <v>196</v>
       </c>
@@ -3170,13 +3262,13 @@
     </row>
     <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50">
+      <c r="A26" s="51">
         <v>20170602</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="28" t="s">
@@ -3184,11 +3276,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="E27" s="29" t="s">
         <v>205</v>
       </c>
@@ -3201,13 +3293,13 @@
     </row>
     <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50">
+      <c r="A29" s="51">
         <v>20170605</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="28" t="s">
@@ -3215,11 +3307,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="E30" s="42" t="s">
         <v>226</v>
       </c>
@@ -3232,13 +3324,13 @@
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50">
+      <c r="A32" s="51">
         <v>20170607</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F32" s="28" t="s">
@@ -3246,11 +3338,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="51"/>
       <c r="E33" s="43" t="s">
         <v>241</v>
       </c>
@@ -3260,13 +3352,13 @@
     </row>
     <row r="34" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50">
+      <c r="A35" s="51">
         <v>20170612</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="28" t="s">
@@ -3274,11 +3366,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="51"/>
       <c r="E36" s="44" t="s">
         <v>244</v>
       </c>
@@ -3294,13 +3386,13 @@
     </row>
     <row r="37" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50">
+      <c r="A38" s="51">
         <v>20170614</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="28" t="s">
@@ -3308,11 +3400,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="E39" s="48" t="s">
         <v>258</v>
       </c>
@@ -3323,8 +3415,38 @@
         <v>259</v>
       </c>
     </row>
+    <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="51">
+        <v>20170619</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="51"/>
+      <c r="B42" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="G42" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="A35:A36"/>
@@ -3341,13 +3463,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3444,7 +3559,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -3491,7 +3606,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
@@ -3536,7 +3651,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
@@ -3581,7 +3696,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="24" t="s">
         <v>42</v>
       </c>
@@ -3626,7 +3741,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="24" t="s">
         <v>43</v>
       </c>
@@ -3671,7 +3786,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
@@ -3717,7 +3832,7 @@
     </row>
     <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3764,7 +3879,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -3809,7 +3924,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
@@ -3854,7 +3969,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="24" t="s">
         <v>42</v>
       </c>
@@ -3899,7 +4014,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
@@ -3944,7 +4059,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="24" t="s">
         <v>40</v>
       </c>
@@ -3995,7 +4110,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="duplicateValues" dxfId="19" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4004,87 +4119,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="48" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="48" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="9.25" style="50" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="50" customWidth="1"/>
+    <col min="4" max="5" width="11.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="50" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="50" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="50">
+      <c r="A2" s="51">
         <v>20170524</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="12">
@@ -4120,16 +4235,16 @@
       <c r="N2" s="13">
         <v>20.208333333333332</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="12">
@@ -4165,16 +4280,16 @@
       <c r="N3" s="13">
         <v>6.2727272727272725</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="12">
@@ -4183,7 +4298,7 @@
       <c r="E4" s="12">
         <v>28</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="50">
         <v>0</v>
       </c>
       <c r="G4" s="12">
@@ -4210,16 +4325,16 @@
       <c r="N4" s="13">
         <v>6.8461538461538458</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="12">
@@ -4228,7 +4343,7 @@
       <c r="E5" s="12">
         <v>32</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="50">
         <v>0</v>
       </c>
       <c r="G5" s="12">
@@ -4255,16 +4370,16 @@
       <c r="N5" s="13">
         <v>14.857142857142858</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="12">
@@ -4273,7 +4388,7 @@
       <c r="E6" s="12">
         <v>29</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <v>0</v>
       </c>
       <c r="G6" s="12">
@@ -4300,16 +4415,16 @@
       <c r="N6" s="13">
         <v>4.4117647058823533</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="12">
@@ -4318,22 +4433,22 @@
       <c r="E7" s="12">
         <v>13</v>
       </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48">
-        <v>0</v>
-      </c>
-      <c r="I7" s="48">
-        <v>0</v>
-      </c>
-      <c r="J7" s="48">
-        <v>0</v>
-      </c>
-      <c r="K7" s="48">
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
         <v>0</v>
       </c>
       <c r="L7" s="15">
@@ -4345,19 +4460,19 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="50">
+      <c r="A9" s="51">
         <v>20170525</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="12">
@@ -4398,11 +4513,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="12">
@@ -4438,16 +4553,16 @@
       <c r="N10" s="13">
         <v>7</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="12">
@@ -4483,16 +4598,16 @@
       <c r="N11" s="13">
         <v>10.777777777777779</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="12">
@@ -4501,13 +4616,13 @@
       <c r="E12" s="12">
         <v>27</v>
       </c>
-      <c r="F12" s="48">
-        <v>0</v>
-      </c>
-      <c r="G12" s="48">
-        <v>0</v>
-      </c>
-      <c r="H12" s="48">
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50">
         <v>0</v>
       </c>
       <c r="I12" s="12">
@@ -4528,16 +4643,16 @@
       <c r="N12" s="13">
         <v>4.6470588235294121</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="12">
@@ -4546,7 +4661,7 @@
       <c r="E13" s="12">
         <v>34</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="50">
         <v>0</v>
       </c>
       <c r="G13" s="12">
@@ -4555,13 +4670,13 @@
       <c r="H13" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="48">
-        <v>0</v>
-      </c>
-      <c r="J13" s="48">
-        <v>0</v>
-      </c>
-      <c r="K13" s="48">
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50">
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -4578,11 +4693,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="12">
@@ -4591,7 +4706,7 @@
       <c r="E14" s="12">
         <v>17</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="50">
         <v>0</v>
       </c>
       <c r="G14" s="12">
@@ -4600,13 +4715,13 @@
       <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I14" s="48">
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
-        <v>0</v>
-      </c>
-      <c r="K14" s="48">
+      <c r="I14" s="50">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
+        <v>0</v>
+      </c>
+      <c r="K14" s="50">
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -4618,19 +4733,19 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="50">
+      <c r="A16" s="51">
         <v>20170526</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="12">
@@ -4671,11 +4786,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="12">
@@ -4711,16 +4826,16 @@
       <c r="N17" s="13">
         <v>13.166666666666666</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="12">
@@ -4729,7 +4844,7 @@
       <c r="E18" s="12">
         <v>31</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="50">
         <v>0</v>
       </c>
       <c r="G18" s="12">
@@ -4756,16 +4871,16 @@
       <c r="N18" s="13">
         <v>7.7777777777777777</v>
       </c>
-      <c r="O18" s="48">
+      <c r="O18" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="12">
@@ -4774,7 +4889,7 @@
       <c r="E19" s="12">
         <v>33</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="50">
         <v>0</v>
       </c>
       <c r="G19" s="12">
@@ -4801,16 +4916,16 @@
       <c r="N19" s="13">
         <v>9.8571428571428577</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="12">
@@ -4819,22 +4934,22 @@
       <c r="E20" s="12">
         <v>49</v>
       </c>
-      <c r="F20" s="48">
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
+        <v>0</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0</v>
+      </c>
+      <c r="I20" s="50">
+        <v>0</v>
+      </c>
+      <c r="J20" s="50">
+        <v>0</v>
+      </c>
+      <c r="K20" s="50">
         <v>0</v>
       </c>
       <c r="L20" s="15">
@@ -4846,16 +4961,16 @@
       <c r="N20" s="15">
         <v>0</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="12">
@@ -4864,22 +4979,22 @@
       <c r="E21" s="12">
         <v>27</v>
       </c>
-      <c r="F21" s="48">
-        <v>0</v>
-      </c>
-      <c r="G21" s="48">
-        <v>0</v>
-      </c>
-      <c r="H21" s="48">
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
-        <v>0</v>
-      </c>
-      <c r="J21" s="48">
-        <v>0</v>
-      </c>
-      <c r="K21" s="48">
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0</v>
+      </c>
+      <c r="K21" s="50">
         <v>0</v>
       </c>
       <c r="L21" s="15">
@@ -4891,13 +5006,13 @@
       <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="50">
+      <c r="A23" s="51">
         <v>20170527</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -4944,7 +5059,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="25" t="s">
         <v>42</v>
       </c>
@@ -4989,7 +5104,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="25" t="s">
         <v>43</v>
       </c>
@@ -5034,7 +5149,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="25" t="s">
         <v>41</v>
       </c>
@@ -5079,7 +5194,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="25" t="s">
         <v>44</v>
       </c>
@@ -5124,7 +5239,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="25" t="s">
         <v>40</v>
       </c>
@@ -5170,7 +5285,7 @@
     </row>
     <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="50">
+      <c r="A30" s="51">
         <v>20170528</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -5217,7 +5332,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="25" t="s">
         <v>44</v>
       </c>
@@ -5262,7 +5377,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="25" t="s">
         <v>41</v>
       </c>
@@ -5307,7 +5422,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="25" t="s">
         <v>42</v>
       </c>
@@ -5352,7 +5467,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
@@ -5397,7 +5512,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="25" t="s">
         <v>43</v>
       </c>
@@ -5443,13 +5558,13 @@
     </row>
     <row r="36" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="50">
+      <c r="A37" s="51">
         <v>20170529</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="12">
@@ -5458,7 +5573,7 @@
       <c r="E37" s="12">
         <v>23</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="50">
         <v>0</v>
       </c>
       <c r="G37" s="12">
@@ -5485,16 +5600,16 @@
       <c r="N37" s="13">
         <v>16</v>
       </c>
-      <c r="O37" s="48">
+      <c r="O37" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="50"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="12">
@@ -5503,7 +5618,7 @@
       <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="50">
         <v>0</v>
       </c>
       <c r="G38" s="12">
@@ -5530,16 +5645,16 @@
       <c r="N38" s="13">
         <v>7</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="12">
@@ -5548,22 +5663,22 @@
       <c r="E39" s="12">
         <v>27</v>
       </c>
-      <c r="F39" s="48">
-        <v>0</v>
-      </c>
-      <c r="G39" s="48">
-        <v>0</v>
-      </c>
-      <c r="H39" s="48">
-        <v>0</v>
-      </c>
-      <c r="I39" s="48">
-        <v>0</v>
-      </c>
-      <c r="J39" s="48">
-        <v>0</v>
-      </c>
-      <c r="K39" s="48">
+      <c r="F39" s="50">
+        <v>0</v>
+      </c>
+      <c r="G39" s="50">
+        <v>0</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0</v>
+      </c>
+      <c r="I39" s="50">
+        <v>0</v>
+      </c>
+      <c r="J39" s="50">
+        <v>0</v>
+      </c>
+      <c r="K39" s="50">
         <v>0</v>
       </c>
       <c r="L39" s="15">
@@ -5580,11 +5695,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="12">
@@ -5593,22 +5708,22 @@
       <c r="E40" s="12">
         <v>15</v>
       </c>
-      <c r="F40" s="48">
-        <v>0</v>
-      </c>
-      <c r="G40" s="48">
-        <v>0</v>
-      </c>
-      <c r="H40" s="48">
-        <v>0</v>
-      </c>
-      <c r="I40" s="48">
-        <v>0</v>
-      </c>
-      <c r="J40" s="48">
-        <v>0</v>
-      </c>
-      <c r="K40" s="48">
+      <c r="F40" s="50">
+        <v>0</v>
+      </c>
+      <c r="G40" s="50">
+        <v>0</v>
+      </c>
+      <c r="H40" s="50">
+        <v>0</v>
+      </c>
+      <c r="I40" s="50">
+        <v>0</v>
+      </c>
+      <c r="J40" s="50">
+        <v>0</v>
+      </c>
+      <c r="K40" s="50">
         <v>0</v>
       </c>
       <c r="L40" s="15">
@@ -5620,16 +5735,16 @@
       <c r="N40" s="15">
         <v>0</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="48" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="12">
@@ -5638,22 +5753,22 @@
       <c r="E41" s="12">
         <v>7</v>
       </c>
-      <c r="F41" s="48">
-        <v>0</v>
-      </c>
-      <c r="G41" s="48">
-        <v>0</v>
-      </c>
-      <c r="H41" s="48">
-        <v>0</v>
-      </c>
-      <c r="I41" s="48">
-        <v>0</v>
-      </c>
-      <c r="J41" s="48">
-        <v>0</v>
-      </c>
-      <c r="K41" s="48">
+      <c r="F41" s="50">
+        <v>0</v>
+      </c>
+      <c r="G41" s="50">
+        <v>0</v>
+      </c>
+      <c r="H41" s="50">
+        <v>0</v>
+      </c>
+      <c r="I41" s="50">
+        <v>0</v>
+      </c>
+      <c r="J41" s="50">
+        <v>0</v>
+      </c>
+      <c r="K41" s="50">
         <v>0</v>
       </c>
       <c r="L41" s="15">
@@ -5670,11 +5785,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="12">
@@ -5683,7 +5798,7 @@
       <c r="E42" s="12">
         <v>21</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="50">
         <v>0</v>
       </c>
       <c r="G42" s="12">
@@ -5692,13 +5807,13 @@
       <c r="H42" s="12">
         <v>1</v>
       </c>
-      <c r="I42" s="48">
-        <v>0</v>
-      </c>
-      <c r="J42" s="48">
-        <v>0</v>
-      </c>
-      <c r="K42" s="48">
+      <c r="I42" s="50">
+        <v>0</v>
+      </c>
+      <c r="J42" s="50">
+        <v>0</v>
+      </c>
+      <c r="K42" s="50">
         <v>0</v>
       </c>
       <c r="L42" s="15">
@@ -5710,13 +5825,13 @@
       <c r="N42" s="15">
         <v>0</v>
       </c>
-      <c r="O42" s="48">
+      <c r="O42" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="50">
+      <c r="A44" s="51">
         <v>20170531</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -5763,7 +5878,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="50"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="25" t="s">
         <v>43</v>
       </c>
@@ -5808,7 +5923,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="25" t="s">
         <v>40</v>
       </c>
@@ -5853,7 +5968,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="25" t="s">
         <v>42</v>
       </c>
@@ -5898,7 +6013,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="50"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="25" t="s">
         <v>44</v>
       </c>
@@ -5943,7 +6058,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="50"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="25" t="s">
         <v>41</v>
       </c>
@@ -5989,7 +6104,7 @@
     </row>
     <row r="50" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="50">
+      <c r="A51" s="51">
         <v>20170601</v>
       </c>
       <c r="B51" s="25" t="s">
@@ -6036,7 +6151,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
@@ -6081,7 +6196,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="25" t="s">
         <v>43</v>
       </c>
@@ -6126,7 +6241,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="50"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="25" t="s">
         <v>42</v>
       </c>
@@ -6171,7 +6286,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="50"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
@@ -6216,7 +6331,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="25" t="s">
         <v>44</v>
       </c>
@@ -6262,7 +6377,7 @@
     </row>
     <row r="57" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="50">
+      <c r="A58" s="51">
         <v>20170602</v>
       </c>
       <c r="B58" s="25" t="s">
@@ -6309,7 +6424,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="50"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="25" t="s">
         <v>42</v>
       </c>
@@ -6354,7 +6469,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="50"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="25" t="s">
         <v>39</v>
       </c>
@@ -6399,7 +6514,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="50"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="25" t="s">
         <v>43</v>
       </c>
@@ -6444,7 +6559,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="50"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="25" t="s">
         <v>44</v>
       </c>
@@ -6489,7 +6604,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="50"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="25" t="s">
         <v>40</v>
       </c>
@@ -6535,7 +6650,7 @@
     </row>
     <row r="64" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="50">
+      <c r="A65" s="51">
         <v>20170603</v>
       </c>
       <c r="B65" s="25" t="s">
@@ -6582,7 +6697,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="25" t="s">
         <v>41</v>
       </c>
@@ -6627,7 +6742,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="50"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="25" t="s">
         <v>39</v>
       </c>
@@ -6672,7 +6787,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="50"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="25" t="s">
         <v>44</v>
       </c>
@@ -6717,7 +6832,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="50"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="25" t="s">
         <v>40</v>
       </c>
@@ -6762,7 +6877,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="50"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="25" t="s">
         <v>42</v>
       </c>
@@ -6808,7 +6923,7 @@
     </row>
     <row r="71" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="50">
+      <c r="A72" s="51">
         <v>20170606</v>
       </c>
       <c r="B72" s="25" t="s">
@@ -6855,7 +6970,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="50"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="25" t="s">
         <v>43</v>
       </c>
@@ -6900,7 +7015,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="50"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="25" t="s">
         <v>41</v>
       </c>
@@ -6945,7 +7060,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="50"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="25" t="s">
         <v>42</v>
       </c>
@@ -6990,7 +7105,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="25" t="s">
         <v>40</v>
       </c>
@@ -7035,7 +7150,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="50"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="25" t="s">
         <v>44</v>
       </c>
@@ -7081,7 +7196,7 @@
     </row>
     <row r="78" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="50">
+      <c r="A79" s="51">
         <v>20170607</v>
       </c>
       <c r="B79" s="25" t="s">
@@ -7128,7 +7243,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="50"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="25" t="s">
         <v>42</v>
       </c>
@@ -7173,7 +7288,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="50"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="25" t="s">
         <v>41</v>
       </c>
@@ -7218,7 +7333,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="50"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="25" t="s">
         <v>43</v>
       </c>
@@ -7263,7 +7378,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="50"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="25" t="s">
         <v>44</v>
       </c>
@@ -7308,7 +7423,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="50"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="25" t="s">
         <v>40</v>
       </c>
@@ -7354,7 +7469,7 @@
     </row>
     <row r="85" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="50">
+      <c r="A86" s="51">
         <v>20170608</v>
       </c>
       <c r="B86" s="25" t="s">
@@ -7401,7 +7516,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="25" t="s">
         <v>42</v>
       </c>
@@ -7446,7 +7561,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="50"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="25" t="s">
         <v>41</v>
       </c>
@@ -7491,7 +7606,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="50"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="25" t="s">
         <v>43</v>
       </c>
@@ -7536,7 +7651,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="50"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="25" t="s">
         <v>40</v>
       </c>
@@ -7581,7 +7696,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="50"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="25" t="s">
         <v>44</v>
       </c>
@@ -7627,7 +7742,7 @@
     </row>
     <row r="92" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="50">
+      <c r="A93" s="51">
         <v>20170609</v>
       </c>
       <c r="B93" s="25" t="s">
@@ -7674,7 +7789,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="50"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="25" t="s">
         <v>39</v>
       </c>
@@ -7719,7 +7834,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="50"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="25" t="s">
         <v>43</v>
       </c>
@@ -7764,7 +7879,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="50"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="25" t="s">
         <v>41</v>
       </c>
@@ -7809,7 +7924,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="50"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="25" t="s">
         <v>40</v>
       </c>
@@ -7854,7 +7969,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="50"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="25" t="s">
         <v>44</v>
       </c>
@@ -7900,7 +8015,7 @@
     </row>
     <row r="99" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="50">
+      <c r="A100" s="51">
         <v>20170610</v>
       </c>
       <c r="B100" s="25" t="s">
@@ -7947,7 +8062,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="50"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="25" t="s">
         <v>42</v>
       </c>
@@ -7992,7 +8107,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="50"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="25" t="s">
         <v>41</v>
       </c>
@@ -8037,7 +8152,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="50"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="25" t="s">
         <v>44</v>
       </c>
@@ -8082,7 +8197,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="50"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="25" t="s">
         <v>39</v>
       </c>
@@ -8127,7 +8242,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="50"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="25" t="s">
         <v>40</v>
       </c>
@@ -8173,7 +8288,7 @@
     </row>
     <row r="106" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="50">
+      <c r="A107" s="51">
         <v>20170611</v>
       </c>
       <c r="B107" s="25" t="s">
@@ -8220,7 +8335,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="50"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="25" t="s">
         <v>40</v>
       </c>
@@ -8265,7 +8380,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="50"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="25" t="s">
         <v>43</v>
       </c>
@@ -8310,7 +8425,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="50"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="25" t="s">
         <v>39</v>
       </c>
@@ -8355,7 +8470,7 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="50"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="25" t="s">
         <v>42</v>
       </c>
@@ -8400,7 +8515,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="50"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="25" t="s">
         <v>44</v>
       </c>
@@ -8446,7 +8561,7 @@
     </row>
     <row r="113" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="50">
+      <c r="A114" s="51">
         <v>20170612</v>
       </c>
       <c r="B114" s="25" t="s">
@@ -8493,7 +8608,7 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="50"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="25" t="s">
         <v>44</v>
       </c>
@@ -8538,7 +8653,7 @@
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="50"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="25" t="s">
         <v>39</v>
       </c>
@@ -8583,7 +8698,7 @@
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A117" s="50"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="25" t="s">
         <v>41</v>
       </c>
@@ -8628,7 +8743,7 @@
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="50"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="25" t="s">
         <v>42</v>
       </c>
@@ -8673,7 +8788,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A119" s="50"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="25" t="s">
         <v>40</v>
       </c>
@@ -8719,7 +8834,7 @@
     </row>
     <row r="120" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="50">
+      <c r="A121" s="51">
         <v>20170613</v>
       </c>
       <c r="B121" s="25" t="s">
@@ -8766,7 +8881,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="50"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="25" t="s">
         <v>42</v>
       </c>
@@ -8811,7 +8926,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="50"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="25" t="s">
         <v>43</v>
       </c>
@@ -8856,7 +8971,7 @@
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="50"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="25" t="s">
         <v>40</v>
       </c>
@@ -8901,7 +9016,7 @@
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="50"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="25" t="s">
         <v>41</v>
       </c>
@@ -8946,7 +9061,7 @@
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="50"/>
+      <c r="A126" s="51"/>
       <c r="B126" s="25" t="s">
         <v>44</v>
       </c>
@@ -8990,9 +9105,285 @@
         <v>0</v>
       </c>
     </row>
+    <row r="127" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A128" s="51">
+        <v>20170618</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="19">
+        <v>46</v>
+      </c>
+      <c r="E128" s="19">
+        <v>112</v>
+      </c>
+      <c r="F128" s="25">
+        <v>0</v>
+      </c>
+      <c r="G128" s="19">
+        <v>11</v>
+      </c>
+      <c r="H128" s="19">
+        <v>10</v>
+      </c>
+      <c r="I128" s="19">
+        <v>4</v>
+      </c>
+      <c r="J128" s="19">
+        <v>4</v>
+      </c>
+      <c r="K128" s="19">
+        <v>6</v>
+      </c>
+      <c r="L128" s="20">
+        <v>392.18</v>
+      </c>
+      <c r="M128" s="21">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="N128" s="20">
+        <v>8.5256521739130431</v>
+      </c>
+      <c r="O128" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A129" s="51"/>
+      <c r="B129" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="19">
+        <v>108</v>
+      </c>
+      <c r="E129" s="19">
+        <v>191</v>
+      </c>
+      <c r="F129" s="25">
+        <v>0</v>
+      </c>
+      <c r="G129" s="19">
+        <v>9</v>
+      </c>
+      <c r="H129" s="19">
+        <v>7</v>
+      </c>
+      <c r="I129" s="19">
+        <v>4</v>
+      </c>
+      <c r="J129" s="19">
+        <v>4</v>
+      </c>
+      <c r="K129" s="19">
+        <v>4</v>
+      </c>
+      <c r="L129" s="20">
+        <v>276.18</v>
+      </c>
+      <c r="M129" s="21">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="N129" s="20">
+        <v>2.5572222222222223</v>
+      </c>
+      <c r="O129" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A130" s="51"/>
+      <c r="B130" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="19">
+        <v>38</v>
+      </c>
+      <c r="E130" s="19">
+        <v>76</v>
+      </c>
+      <c r="F130" s="25">
+        <v>0</v>
+      </c>
+      <c r="G130" s="19">
+        <v>4</v>
+      </c>
+      <c r="H130" s="19">
+        <v>4</v>
+      </c>
+      <c r="I130" s="19">
+        <v>2</v>
+      </c>
+      <c r="J130" s="19">
+        <v>2</v>
+      </c>
+      <c r="K130" s="19">
+        <v>2</v>
+      </c>
+      <c r="L130" s="20">
+        <v>152</v>
+      </c>
+      <c r="M130" s="21">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N130" s="20">
+        <v>4</v>
+      </c>
+      <c r="O130" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A131" s="51"/>
+      <c r="B131" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="19">
+        <v>12</v>
+      </c>
+      <c r="E131" s="19">
+        <v>22</v>
+      </c>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="19">
+        <v>5</v>
+      </c>
+      <c r="H131" s="19">
+        <v>4</v>
+      </c>
+      <c r="I131" s="19">
+        <v>2</v>
+      </c>
+      <c r="J131" s="19">
+        <v>2</v>
+      </c>
+      <c r="K131" s="19">
+        <v>2</v>
+      </c>
+      <c r="L131" s="20">
+        <v>78</v>
+      </c>
+      <c r="M131" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N131" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="O131" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A132" s="51"/>
+      <c r="B132" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="19">
+        <v>41</v>
+      </c>
+      <c r="E132" s="19">
+        <v>93</v>
+      </c>
+      <c r="F132" s="25">
+        <v>0</v>
+      </c>
+      <c r="G132" s="19">
+        <v>7</v>
+      </c>
+      <c r="H132" s="19">
+        <v>7</v>
+      </c>
+      <c r="I132" s="19">
+        <v>1</v>
+      </c>
+      <c r="J132" s="19">
+        <v>1</v>
+      </c>
+      <c r="K132" s="19">
+        <v>1</v>
+      </c>
+      <c r="L132" s="20">
+        <v>69</v>
+      </c>
+      <c r="M132" s="21">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="N132" s="20">
+        <v>1.6829268292682926</v>
+      </c>
+      <c r="O132" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A133" s="51"/>
+      <c r="B133" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="19">
+        <v>34</v>
+      </c>
+      <c r="E133" s="19">
+        <v>77</v>
+      </c>
+      <c r="F133" s="25">
+        <v>0</v>
+      </c>
+      <c r="G133" s="19">
+        <v>2</v>
+      </c>
+      <c r="H133" s="19">
+        <v>2</v>
+      </c>
+      <c r="I133" s="25">
+        <v>0</v>
+      </c>
+      <c r="J133" s="25">
+        <v>0</v>
+      </c>
+      <c r="K133" s="25">
+        <v>0</v>
+      </c>
+      <c r="L133" s="22">
+        <v>0</v>
+      </c>
+      <c r="M133" s="21">
+        <v>0</v>
+      </c>
+      <c r="N133" s="22">
+        <v>0</v>
+      </c>
+      <c r="O133" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O77"/>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A128:A133"/>
     <mergeCell ref="A107:A112"/>
     <mergeCell ref="A121:A126"/>
     <mergeCell ref="A114:A119"/>
@@ -9009,63 +9400,64 @@
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A100:A105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B7">
+    <cfRule type="duplicateValues" dxfId="19" priority="20" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B14">
     <cfRule type="duplicateValues" dxfId="18" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B14">
+  <conditionalFormatting sqref="B16:B21">
     <cfRule type="duplicateValues" dxfId="17" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
+  <conditionalFormatting sqref="B23:B28">
     <cfRule type="duplicateValues" dxfId="16" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B28">
+  <conditionalFormatting sqref="B30:B35">
     <cfRule type="duplicateValues" dxfId="15" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B35">
+  <conditionalFormatting sqref="B37:B42">
     <cfRule type="duplicateValues" dxfId="14" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B42">
+  <conditionalFormatting sqref="B44:B49">
     <cfRule type="duplicateValues" dxfId="13" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B49">
+  <conditionalFormatting sqref="B51:B56">
     <cfRule type="duplicateValues" dxfId="12" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B56">
+  <conditionalFormatting sqref="B58:B63">
     <cfRule type="duplicateValues" dxfId="11" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B63">
+  <conditionalFormatting sqref="B65:B70">
     <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B70">
+  <conditionalFormatting sqref="B72:B77">
     <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B77">
+  <conditionalFormatting sqref="B79:B84">
     <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B84">
+  <conditionalFormatting sqref="B86:B91">
     <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B91">
+  <conditionalFormatting sqref="B93:B98">
     <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B98">
+  <conditionalFormatting sqref="B100:B105">
     <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B105">
-    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B107:B112">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B119">
+    <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B126">
     <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B126">
+  <conditionalFormatting sqref="B128:B133">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9073,6 +9465,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>616</v>
+      </c>
+      <c r="B2">
+        <v>1573</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>1936</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>4.38</v>
+      </c>
+      <c r="I2">
+        <v>197.42</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>935.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -9143,7 +9629,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="6"/>
@@ -9165,7 +9651,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
@@ -9180,14 +9666,14 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -9202,11 +9688,11 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="51"/>
       <c r="G6" s="7" t="s">
         <v>92</v>
       </c>
@@ -9228,13 +9714,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9500,7 +9986,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="53">
+      <c r="A9" s="54">
         <v>42877</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -9531,7 +10017,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="34" t="s">
         <v>131</v>
       </c>
@@ -9562,7 +10048,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="53">
+      <c r="A11" s="54">
         <v>42878</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -9593,7 +10079,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="34" t="s">
         <v>136</v>
       </c>
@@ -9622,7 +10108,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="34" t="s">
         <v>121</v>
       </c>
@@ -9682,7 +10168,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
+      <c r="A15" s="54">
         <v>42880</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -9711,7 +10197,7 @@
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="34" t="s">
         <v>116</v>
       </c>
@@ -9738,7 +10224,7 @@
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="34" t="s">
         <v>131</v>
       </c>
@@ -9767,7 +10253,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="34" t="s">
         <v>116</v>
       </c>
@@ -9796,7 +10282,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="34" t="s">
         <v>116</v>
       </c>
@@ -9825,7 +10311,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="34" t="s">
         <v>131</v>
       </c>
@@ -9854,7 +10340,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="54">
+      <c r="A21" s="55">
         <v>42881</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -9894,7 +10380,7 @@
       <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="30" t="s">
         <v>185</v>
       </c>
@@ -9927,7 +10413,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="30" t="s">
         <v>181</v>
       </c>
@@ -9960,7 +10446,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="30" t="s">
         <v>131</v>
       </c>
@@ -9993,7 +10479,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="34" t="s">
         <v>191</v>
       </c>
@@ -10026,7 +10512,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="52">
+      <c r="A26" s="53">
         <v>20170527</v>
       </c>
       <c r="B26" s="30" t="s">
@@ -10059,7 +10545,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="30" t="s">
         <v>131</v>
       </c>
@@ -10090,7 +10576,7 @@
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="52">
+      <c r="A28" s="53">
         <v>20170602</v>
       </c>
       <c r="B28" s="34" t="s">
@@ -10119,7 +10605,7 @@
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="34" t="s">
         <v>217</v>
       </c>
@@ -10146,7 +10632,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="30" t="s">
         <v>131</v>
       </c>
@@ -10242,14 +10728,14 @@
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="41"/>

--- a/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="沉香" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="287">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,50 @@
   </si>
   <si>
     <t>成交金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-20-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-19-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-23-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6/5/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12/9/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-81-87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1904-310-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4/4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-42-44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>237-258-260</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1265,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,6 +1462,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,7 +1482,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1948,9 +2005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1997,7 +2054,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="51">
+      <c r="A3" s="52">
         <v>20170516</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2014,7 +2071,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2086,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2045,10 +2102,10 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
+      <c r="A7" s="52">
         <v>20170523</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2062,8 +2119,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2072,8 +2129,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2082,8 +2139,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2094,25 +2151,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="51">
+      <c r="A14" s="52">
         <v>20170524</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2129,8 +2186,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2148,8 +2205,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -2167,8 +2224,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2176,28 +2233,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51">
+      <c r="A21" s="52">
         <v>20170525</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2214,40 +2271,40 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51">
+      <c r="A24" s="52">
         <v>20170525</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51">
+      <c r="A27" s="52">
         <v>20170530</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -2258,21 +2315,21 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="51">
+      <c r="A30" s="52">
         <v>20170601</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="27" t="s">
@@ -2283,21 +2340,21 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:8" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51">
+      <c r="A33" s="52">
         <v>20170602</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -2308,21 +2365,21 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="52"/>
     </row>
     <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:8" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51">
+      <c r="A36" s="52">
         <v>20170605</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="42" t="s">
@@ -2333,21 +2390,21 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="51"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51">
+      <c r="A39" s="52">
         <v>20170607</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="43" t="s">
@@ -2358,21 +2415,21 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:8" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="51">
+      <c r="A42" s="52">
         <v>20170612</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="44" t="s">
@@ -2389,21 +2446,21 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:8" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="51">
+      <c r="A45" s="52">
         <v>20170613</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="48" t="s">
@@ -2414,35 +2471,52 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="48" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="51">
-        <v>20170619</v>
-      </c>
-      <c r="B48" s="50" t="s">
+    <row r="48" spans="1:8" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="52">
+        <v>20170620</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
-      <c r="B49" s="50" t="s">
+      <c r="E48" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="52"/>
+      <c r="B49" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C21:C22"/>
@@ -2456,18 +2530,7 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2477,11 +2540,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2532,7 +2595,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="51">
+      <c r="A3" s="52">
         <v>20170515</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2540,23 +2603,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
+      <c r="A7" s="52">
         <v>20170523</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2573,8 +2636,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2589,8 +2652,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2603,143 +2666,143 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="51">
+      <c r="A11" s="52">
         <v>20170524</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="51">
+      <c r="A15" s="52">
         <v>20170525</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51" t="s">
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51">
+      <c r="A19" s="52">
         <v>20170526</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -2923,8 +2986,56 @@
       </c>
       <c r="E37" s="28"/>
     </row>
+    <row r="38" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="51">
+        <v>20170620</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
@@ -2934,27 +3045,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,8 +3056,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:A42"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3008,10 +3098,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="51">
+      <c r="A3" s="52">
         <v>20170523</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3025,8 +3115,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3035,8 +3125,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3045,11 +3135,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3066,8 +3156,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3079,8 +3169,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3093,13 +3183,13 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51">
+      <c r="A11" s="52">
         <v>20170524</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3107,11 +3197,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
@@ -3124,13 +3214,13 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51">
+      <c r="A14" s="52">
         <v>20170525</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3141,11 +3231,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="E15" s="4" t="s">
         <v>102</v>
       </c>
@@ -3162,13 +3252,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51">
+      <c r="A17" s="52">
         <v>20170526</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3179,11 +3269,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="E18" s="10" t="s">
         <v>101</v>
       </c>
@@ -3196,13 +3286,13 @@
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51">
+      <c r="A20" s="52">
         <v>20170530</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -3211,11 +3301,11 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="E21" s="17" t="s">
         <v>163</v>
       </c>
@@ -3228,13 +3318,13 @@
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51">
+      <c r="A23" s="52">
         <v>20170601</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -3248,11 +3338,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="E24" s="27" t="s">
         <v>196</v>
       </c>
@@ -3262,13 +3352,13 @@
     </row>
     <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51">
+      <c r="A26" s="52">
         <v>20170602</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="28" t="s">
@@ -3276,11 +3366,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="E27" s="29" t="s">
         <v>205</v>
       </c>
@@ -3293,13 +3383,13 @@
     </row>
     <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="51">
+      <c r="A29" s="52">
         <v>20170605</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="28" t="s">
@@ -3307,11 +3397,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="E30" s="42" t="s">
         <v>226</v>
       </c>
@@ -3324,13 +3414,13 @@
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="51">
+      <c r="A32" s="52">
         <v>20170607</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F32" s="28" t="s">
@@ -3338,11 +3428,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="52"/>
       <c r="E33" s="43" t="s">
         <v>241</v>
       </c>
@@ -3352,13 +3442,13 @@
     </row>
     <row r="34" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51">
+      <c r="A35" s="52">
         <v>20170612</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="28" t="s">
@@ -3366,11 +3456,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="52"/>
       <c r="E36" s="44" t="s">
         <v>244</v>
       </c>
@@ -3386,13 +3476,13 @@
     </row>
     <row r="37" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="51">
+      <c r="A38" s="52">
         <v>20170614</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="28" t="s">
@@ -3400,11 +3490,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="E39" s="48" t="s">
         <v>258</v>
       </c>
@@ -3417,27 +3507,46 @@
     </row>
     <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="51">
-        <v>20170619</v>
+      <c r="A41" s="52">
+        <v>20170620</v>
       </c>
       <c r="B41" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="50" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="42" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="G42" s="28"/>
+      <c r="C42" s="52"/>
+      <c r="E42" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C23:C24"/>
@@ -3454,15 +3563,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,7 +3659,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -3606,7 +3706,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
@@ -3651,7 +3751,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
@@ -3696,7 +3796,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="24" t="s">
         <v>42</v>
       </c>
@@ -3741,7 +3841,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="24" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +3886,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
@@ -3832,7 +3932,7 @@
     </row>
     <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3879,7 +3979,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -3924,7 +4024,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
@@ -3969,7 +4069,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24" t="s">
         <v>42</v>
       </c>
@@ -4014,7 +4114,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
@@ -4059,7 +4159,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="24" t="s">
         <v>40</v>
       </c>
@@ -4110,7 +4210,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="duplicateValues" dxfId="20" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4119,87 +4219,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="50" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="50" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="50" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="9.25" style="51" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="51" customWidth="1"/>
+    <col min="4" max="5" width="11.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="51" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="51" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="51" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="51">
+      <c r="A2" s="52">
         <v>20170524</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="12">
@@ -4235,16 +4335,16 @@
       <c r="N2" s="13">
         <v>20.208333333333332</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="12">
@@ -4280,16 +4380,16 @@
       <c r="N3" s="13">
         <v>6.2727272727272725</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="12">
@@ -4298,7 +4398,7 @@
       <c r="E4" s="12">
         <v>28</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="51">
         <v>0</v>
       </c>
       <c r="G4" s="12">
@@ -4325,16 +4425,16 @@
       <c r="N4" s="13">
         <v>6.8461538461538458</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="12">
@@ -4343,7 +4443,7 @@
       <c r="E5" s="12">
         <v>32</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="51">
         <v>0</v>
       </c>
       <c r="G5" s="12">
@@ -4370,16 +4470,16 @@
       <c r="N5" s="13">
         <v>14.857142857142858</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="12">
@@ -4388,7 +4488,7 @@
       <c r="E6" s="12">
         <v>29</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="51">
         <v>0</v>
       </c>
       <c r="G6" s="12">
@@ -4415,16 +4515,16 @@
       <c r="N6" s="13">
         <v>4.4117647058823533</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="12">
@@ -4433,22 +4533,22 @@
       <c r="E7" s="12">
         <v>13</v>
       </c>
-      <c r="F7" s="50">
-        <v>0</v>
-      </c>
-      <c r="G7" s="50">
-        <v>0</v>
-      </c>
-      <c r="H7" s="50">
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <v>0</v>
-      </c>
-      <c r="J7" s="50">
-        <v>0</v>
-      </c>
-      <c r="K7" s="50">
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <v>0</v>
+      </c>
+      <c r="K7" s="51">
         <v>0</v>
       </c>
       <c r="L7" s="15">
@@ -4460,19 +4560,19 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="51">
+      <c r="A9" s="52">
         <v>20170525</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="12">
@@ -4513,11 +4613,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="12">
@@ -4553,16 +4653,16 @@
       <c r="N10" s="13">
         <v>7</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="12">
@@ -4598,16 +4698,16 @@
       <c r="N11" s="13">
         <v>10.777777777777779</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="12">
@@ -4616,13 +4716,13 @@
       <c r="E12" s="12">
         <v>27</v>
       </c>
-      <c r="F12" s="50">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50">
-        <v>0</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
         <v>0</v>
       </c>
       <c r="I12" s="12">
@@ -4643,16 +4743,16 @@
       <c r="N12" s="13">
         <v>4.6470588235294121</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="12">
@@ -4661,7 +4761,7 @@
       <c r="E13" s="12">
         <v>34</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="51">
         <v>0</v>
       </c>
       <c r="G13" s="12">
@@ -4670,13 +4770,13 @@
       <c r="H13" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="50">
-        <v>0</v>
-      </c>
-      <c r="J13" s="50">
-        <v>0</v>
-      </c>
-      <c r="K13" s="50">
+      <c r="I13" s="51">
+        <v>0</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0</v>
+      </c>
+      <c r="K13" s="51">
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -4693,11 +4793,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="12">
@@ -4706,7 +4806,7 @@
       <c r="E14" s="12">
         <v>17</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <v>0</v>
       </c>
       <c r="G14" s="12">
@@ -4715,13 +4815,13 @@
       <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I14" s="50">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50">
-        <v>0</v>
-      </c>
-      <c r="K14" s="50">
+      <c r="I14" s="51">
+        <v>0</v>
+      </c>
+      <c r="J14" s="51">
+        <v>0</v>
+      </c>
+      <c r="K14" s="51">
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -4733,19 +4833,19 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="51">
+      <c r="A16" s="52">
         <v>20170526</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="12">
@@ -4786,11 +4886,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="12">
@@ -4826,16 +4926,16 @@
       <c r="N17" s="13">
         <v>13.166666666666666</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="12">
@@ -4844,7 +4944,7 @@
       <c r="E18" s="12">
         <v>31</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="51">
         <v>0</v>
       </c>
       <c r="G18" s="12">
@@ -4871,16 +4971,16 @@
       <c r="N18" s="13">
         <v>7.7777777777777777</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="12">
@@ -4889,7 +4989,7 @@
       <c r="E19" s="12">
         <v>33</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="51">
         <v>0</v>
       </c>
       <c r="G19" s="12">
@@ -4916,16 +5016,16 @@
       <c r="N19" s="13">
         <v>9.8571428571428577</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="12">
@@ -4934,22 +5034,22 @@
       <c r="E20" s="12">
         <v>49</v>
       </c>
-      <c r="F20" s="50">
-        <v>0</v>
-      </c>
-      <c r="G20" s="50">
-        <v>0</v>
-      </c>
-      <c r="H20" s="50">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50">
-        <v>0</v>
-      </c>
-      <c r="K20" s="50">
+      <c r="F20" s="51">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0</v>
+      </c>
+      <c r="I20" s="51">
+        <v>0</v>
+      </c>
+      <c r="J20" s="51">
+        <v>0</v>
+      </c>
+      <c r="K20" s="51">
         <v>0</v>
       </c>
       <c r="L20" s="15">
@@ -4961,16 +5061,16 @@
       <c r="N20" s="15">
         <v>0</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="12">
@@ -4979,22 +5079,22 @@
       <c r="E21" s="12">
         <v>27</v>
       </c>
-      <c r="F21" s="50">
-        <v>0</v>
-      </c>
-      <c r="G21" s="50">
-        <v>0</v>
-      </c>
-      <c r="H21" s="50">
-        <v>0</v>
-      </c>
-      <c r="I21" s="50">
-        <v>0</v>
-      </c>
-      <c r="J21" s="50">
-        <v>0</v>
-      </c>
-      <c r="K21" s="50">
+      <c r="F21" s="51">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
+        <v>0</v>
+      </c>
+      <c r="H21" s="51">
+        <v>0</v>
+      </c>
+      <c r="I21" s="51">
+        <v>0</v>
+      </c>
+      <c r="J21" s="51">
+        <v>0</v>
+      </c>
+      <c r="K21" s="51">
         <v>0</v>
       </c>
       <c r="L21" s="15">
@@ -5006,13 +5106,13 @@
       <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="51">
+      <c r="A23" s="52">
         <v>20170527</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -5059,7 +5159,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="25" t="s">
         <v>42</v>
       </c>
@@ -5104,7 +5204,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="25" t="s">
         <v>43</v>
       </c>
@@ -5149,7 +5249,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="25" t="s">
         <v>41</v>
       </c>
@@ -5194,7 +5294,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="25" t="s">
         <v>44</v>
       </c>
@@ -5239,7 +5339,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="25" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5385,7 @@
     </row>
     <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="51">
+      <c r="A30" s="52">
         <v>20170528</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -5332,7 +5432,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="25" t="s">
         <v>44</v>
       </c>
@@ -5377,7 +5477,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="25" t="s">
         <v>41</v>
       </c>
@@ -5422,7 +5522,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="25" t="s">
         <v>42</v>
       </c>
@@ -5467,7 +5567,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
@@ -5512,7 +5612,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="25" t="s">
         <v>43</v>
       </c>
@@ -5558,13 +5658,13 @@
     </row>
     <row r="36" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="51">
+      <c r="A37" s="52">
         <v>20170529</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="12">
@@ -5573,7 +5673,7 @@
       <c r="E37" s="12">
         <v>23</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="51">
         <v>0</v>
       </c>
       <c r="G37" s="12">
@@ -5600,16 +5700,16 @@
       <c r="N37" s="13">
         <v>16</v>
       </c>
-      <c r="O37" s="50">
+      <c r="O37" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="51"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="12">
@@ -5618,7 +5718,7 @@
       <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="51">
         <v>0</v>
       </c>
       <c r="G38" s="12">
@@ -5645,16 +5745,16 @@
       <c r="N38" s="13">
         <v>7</v>
       </c>
-      <c r="O38" s="50">
+      <c r="O38" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="51"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="12">
@@ -5663,22 +5763,22 @@
       <c r="E39" s="12">
         <v>27</v>
       </c>
-      <c r="F39" s="50">
-        <v>0</v>
-      </c>
-      <c r="G39" s="50">
-        <v>0</v>
-      </c>
-      <c r="H39" s="50">
-        <v>0</v>
-      </c>
-      <c r="I39" s="50">
-        <v>0</v>
-      </c>
-      <c r="J39" s="50">
-        <v>0</v>
-      </c>
-      <c r="K39" s="50">
+      <c r="F39" s="51">
+        <v>0</v>
+      </c>
+      <c r="G39" s="51">
+        <v>0</v>
+      </c>
+      <c r="H39" s="51">
+        <v>0</v>
+      </c>
+      <c r="I39" s="51">
+        <v>0</v>
+      </c>
+      <c r="J39" s="51">
+        <v>0</v>
+      </c>
+      <c r="K39" s="51">
         <v>0</v>
       </c>
       <c r="L39" s="15">
@@ -5695,11 +5795,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="51"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="12">
@@ -5708,22 +5808,22 @@
       <c r="E40" s="12">
         <v>15</v>
       </c>
-      <c r="F40" s="50">
-        <v>0</v>
-      </c>
-      <c r="G40" s="50">
-        <v>0</v>
-      </c>
-      <c r="H40" s="50">
-        <v>0</v>
-      </c>
-      <c r="I40" s="50">
-        <v>0</v>
-      </c>
-      <c r="J40" s="50">
-        <v>0</v>
-      </c>
-      <c r="K40" s="50">
+      <c r="F40" s="51">
+        <v>0</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0</v>
+      </c>
+      <c r="H40" s="51">
+        <v>0</v>
+      </c>
+      <c r="I40" s="51">
+        <v>0</v>
+      </c>
+      <c r="J40" s="51">
+        <v>0</v>
+      </c>
+      <c r="K40" s="51">
         <v>0</v>
       </c>
       <c r="L40" s="15">
@@ -5735,16 +5835,16 @@
       <c r="N40" s="15">
         <v>0</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O40" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="51"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="12">
@@ -5753,22 +5853,22 @@
       <c r="E41" s="12">
         <v>7</v>
       </c>
-      <c r="F41" s="50">
-        <v>0</v>
-      </c>
-      <c r="G41" s="50">
-        <v>0</v>
-      </c>
-      <c r="H41" s="50">
-        <v>0</v>
-      </c>
-      <c r="I41" s="50">
-        <v>0</v>
-      </c>
-      <c r="J41" s="50">
-        <v>0</v>
-      </c>
-      <c r="K41" s="50">
+      <c r="F41" s="51">
+        <v>0</v>
+      </c>
+      <c r="G41" s="51">
+        <v>0</v>
+      </c>
+      <c r="H41" s="51">
+        <v>0</v>
+      </c>
+      <c r="I41" s="51">
+        <v>0</v>
+      </c>
+      <c r="J41" s="51">
+        <v>0</v>
+      </c>
+      <c r="K41" s="51">
         <v>0</v>
       </c>
       <c r="L41" s="15">
@@ -5785,11 +5885,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="12">
@@ -5798,7 +5898,7 @@
       <c r="E42" s="12">
         <v>21</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="51">
         <v>0</v>
       </c>
       <c r="G42" s="12">
@@ -5807,13 +5907,13 @@
       <c r="H42" s="12">
         <v>1</v>
       </c>
-      <c r="I42" s="50">
-        <v>0</v>
-      </c>
-      <c r="J42" s="50">
-        <v>0</v>
-      </c>
-      <c r="K42" s="50">
+      <c r="I42" s="51">
+        <v>0</v>
+      </c>
+      <c r="J42" s="51">
+        <v>0</v>
+      </c>
+      <c r="K42" s="51">
         <v>0</v>
       </c>
       <c r="L42" s="15">
@@ -5825,13 +5925,13 @@
       <c r="N42" s="15">
         <v>0</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O42" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="51">
+      <c r="A44" s="52">
         <v>20170531</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -5878,7 +5978,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="51"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="25" t="s">
         <v>43</v>
       </c>
@@ -5923,7 +6023,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="25" t="s">
         <v>40</v>
       </c>
@@ -5968,7 +6068,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="25" t="s">
         <v>42</v>
       </c>
@@ -6013,7 +6113,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="25" t="s">
         <v>44</v>
       </c>
@@ -6058,7 +6158,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="25" t="s">
         <v>41</v>
       </c>
@@ -6104,7 +6204,7 @@
     </row>
     <row r="50" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="51">
+      <c r="A51" s="52">
         <v>20170601</v>
       </c>
       <c r="B51" s="25" t="s">
@@ -6151,7 +6251,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="25" t="s">
         <v>41</v>
       </c>
@@ -6196,7 +6296,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="25" t="s">
         <v>43</v>
       </c>
@@ -6241,7 +6341,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="25" t="s">
         <v>42</v>
       </c>
@@ -6286,7 +6386,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
@@ -6331,7 +6431,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="51"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="25" t="s">
         <v>44</v>
       </c>
@@ -6377,7 +6477,7 @@
     </row>
     <row r="57" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="51">
+      <c r="A58" s="52">
         <v>20170602</v>
       </c>
       <c r="B58" s="25" t="s">
@@ -6424,7 +6524,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="25" t="s">
         <v>42</v>
       </c>
@@ -6469,7 +6569,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="25" t="s">
         <v>39</v>
       </c>
@@ -6514,7 +6614,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="25" t="s">
         <v>43</v>
       </c>
@@ -6559,7 +6659,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="25" t="s">
         <v>44</v>
       </c>
@@ -6604,7 +6704,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="51"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="25" t="s">
         <v>40</v>
       </c>
@@ -6650,7 +6750,7 @@
     </row>
     <row r="64" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="51">
+      <c r="A65" s="52">
         <v>20170603</v>
       </c>
       <c r="B65" s="25" t="s">
@@ -6697,7 +6797,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="51"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="25" t="s">
         <v>41</v>
       </c>
@@ -6742,7 +6842,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="51"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="25" t="s">
         <v>39</v>
       </c>
@@ -6787,7 +6887,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="51"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="25" t="s">
         <v>44</v>
       </c>
@@ -6832,7 +6932,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="51"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="25" t="s">
         <v>40</v>
       </c>
@@ -6877,7 +6977,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="25" t="s">
         <v>42</v>
       </c>
@@ -6923,7 +7023,7 @@
     </row>
     <row r="71" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="51">
+      <c r="A72" s="52">
         <v>20170606</v>
       </c>
       <c r="B72" s="25" t="s">
@@ -6970,7 +7070,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="25" t="s">
         <v>43</v>
       </c>
@@ -7015,7 +7115,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="51"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="25" t="s">
         <v>41</v>
       </c>
@@ -7060,7 +7160,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="51"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="25" t="s">
         <v>42</v>
       </c>
@@ -7105,7 +7205,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="51"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="25" t="s">
         <v>40</v>
       </c>
@@ -7150,7 +7250,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="51"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="25" t="s">
         <v>44</v>
       </c>
@@ -7196,7 +7296,7 @@
     </row>
     <row r="78" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="51">
+      <c r="A79" s="52">
         <v>20170607</v>
       </c>
       <c r="B79" s="25" t="s">
@@ -7243,7 +7343,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="51"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="25" t="s">
         <v>42</v>
       </c>
@@ -7288,7 +7388,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="51"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="25" t="s">
         <v>41</v>
       </c>
@@ -7333,7 +7433,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="51"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="25" t="s">
         <v>43</v>
       </c>
@@ -7378,7 +7478,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="51"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="25" t="s">
         <v>44</v>
       </c>
@@ -7423,7 +7523,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="51"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="25" t="s">
         <v>40</v>
       </c>
@@ -7469,7 +7569,7 @@
     </row>
     <row r="85" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="51">
+      <c r="A86" s="52">
         <v>20170608</v>
       </c>
       <c r="B86" s="25" t="s">
@@ -7516,7 +7616,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="51"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="25" t="s">
         <v>42</v>
       </c>
@@ -7561,7 +7661,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="51"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="25" t="s">
         <v>41</v>
       </c>
@@ -7606,7 +7706,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="51"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="25" t="s">
         <v>43</v>
       </c>
@@ -7651,7 +7751,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="51"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="25" t="s">
         <v>40</v>
       </c>
@@ -7696,7 +7796,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="51"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="25" t="s">
         <v>44</v>
       </c>
@@ -7742,7 +7842,7 @@
     </row>
     <row r="92" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="51">
+      <c r="A93" s="52">
         <v>20170609</v>
       </c>
       <c r="B93" s="25" t="s">
@@ -7789,7 +7889,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="51"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="25" t="s">
         <v>39</v>
       </c>
@@ -7834,7 +7934,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="51"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="25" t="s">
         <v>43</v>
       </c>
@@ -7879,7 +7979,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="51"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="25" t="s">
         <v>41</v>
       </c>
@@ -7924,7 +8024,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="51"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="25" t="s">
         <v>40</v>
       </c>
@@ -7969,7 +8069,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="25" t="s">
         <v>44</v>
       </c>
@@ -8015,7 +8115,7 @@
     </row>
     <row r="99" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="51">
+      <c r="A100" s="52">
         <v>20170610</v>
       </c>
       <c r="B100" s="25" t="s">
@@ -8062,7 +8162,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="51"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="25" t="s">
         <v>42</v>
       </c>
@@ -8107,7 +8207,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="51"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="25" t="s">
         <v>41</v>
       </c>
@@ -8152,7 +8252,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="51"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="25" t="s">
         <v>44</v>
       </c>
@@ -8197,7 +8297,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="51"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="25" t="s">
         <v>39</v>
       </c>
@@ -8242,7 +8342,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="51"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="25" t="s">
         <v>40</v>
       </c>
@@ -8288,7 +8388,7 @@
     </row>
     <row r="106" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="51">
+      <c r="A107" s="52">
         <v>20170611</v>
       </c>
       <c r="B107" s="25" t="s">
@@ -8335,7 +8435,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="51"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="25" t="s">
         <v>40</v>
       </c>
@@ -8380,7 +8480,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="51"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="25" t="s">
         <v>43</v>
       </c>
@@ -8425,7 +8525,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="51"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="25" t="s">
         <v>39</v>
       </c>
@@ -8470,7 +8570,7 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="51"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="25" t="s">
         <v>42</v>
       </c>
@@ -8515,7 +8615,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="51"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="25" t="s">
         <v>44</v>
       </c>
@@ -8561,7 +8661,7 @@
     </row>
     <row r="113" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="51">
+      <c r="A114" s="52">
         <v>20170612</v>
       </c>
       <c r="B114" s="25" t="s">
@@ -8608,7 +8708,7 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="51"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="25" t="s">
         <v>44</v>
       </c>
@@ -8653,7 +8753,7 @@
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="51"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="25" t="s">
         <v>39</v>
       </c>
@@ -8698,7 +8798,7 @@
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A117" s="51"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="25" t="s">
         <v>41</v>
       </c>
@@ -8743,7 +8843,7 @@
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="51"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="25" t="s">
         <v>42</v>
       </c>
@@ -8788,7 +8888,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A119" s="51"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="25" t="s">
         <v>40</v>
       </c>
@@ -8834,7 +8934,7 @@
     </row>
     <row r="120" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="51">
+      <c r="A121" s="52">
         <v>20170613</v>
       </c>
       <c r="B121" s="25" t="s">
@@ -8881,7 +8981,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="51"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="25" t="s">
         <v>42</v>
       </c>
@@ -8926,7 +9026,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="51"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="25" t="s">
         <v>43</v>
       </c>
@@ -8971,7 +9071,7 @@
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="51"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="25" t="s">
         <v>40</v>
       </c>
@@ -9016,7 +9116,7 @@
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="51"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="25" t="s">
         <v>41</v>
       </c>
@@ -9061,7 +9161,7 @@
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="51"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="25" t="s">
         <v>44</v>
       </c>
@@ -9107,7 +9207,7 @@
     </row>
     <row r="127" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A128" s="51">
+      <c r="A128" s="52">
         <v>20170618</v>
       </c>
       <c r="B128" s="25" t="s">
@@ -9154,7 +9254,7 @@
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A129" s="51"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="25" t="s">
         <v>39</v>
       </c>
@@ -9199,7 +9299,7 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A130" s="51"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="25" t="s">
         <v>43</v>
       </c>
@@ -9244,7 +9344,7 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A131" s="51"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="25" t="s">
         <v>40</v>
       </c>
@@ -9289,7 +9389,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A132" s="51"/>
+      <c r="A132" s="52"/>
       <c r="B132" s="25" t="s">
         <v>42</v>
       </c>
@@ -9334,7 +9434,7 @@
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A133" s="51"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="25" t="s">
         <v>44</v>
       </c>
@@ -9378,15 +9478,285 @@
         <v>0</v>
       </c>
     </row>
+    <row r="134" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A135" s="52">
+        <v>20170619</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" s="19">
+        <v>74</v>
+      </c>
+      <c r="E135" s="19">
+        <v>125</v>
+      </c>
+      <c r="F135" s="25">
+        <v>0</v>
+      </c>
+      <c r="G135" s="19">
+        <v>11</v>
+      </c>
+      <c r="H135" s="19">
+        <v>10</v>
+      </c>
+      <c r="I135" s="19">
+        <v>7</v>
+      </c>
+      <c r="J135" s="19">
+        <v>8</v>
+      </c>
+      <c r="K135" s="19">
+        <v>9</v>
+      </c>
+      <c r="L135" s="20">
+        <v>595.62000000000012</v>
+      </c>
+      <c r="M135" s="21">
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="N135" s="20">
+        <v>8.0489189189189201</v>
+      </c>
+      <c r="O135" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A136" s="52"/>
+      <c r="B136" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="19">
+        <v>33</v>
+      </c>
+      <c r="E136" s="19">
+        <v>90</v>
+      </c>
+      <c r="F136" s="19">
+        <v>2</v>
+      </c>
+      <c r="G136" s="19">
+        <v>7</v>
+      </c>
+      <c r="H136" s="19">
+        <v>6</v>
+      </c>
+      <c r="I136" s="19">
+        <v>2</v>
+      </c>
+      <c r="J136" s="19">
+        <v>2</v>
+      </c>
+      <c r="K136" s="19">
+        <v>2</v>
+      </c>
+      <c r="L136" s="20">
+        <v>172.36</v>
+      </c>
+      <c r="M136" s="21">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="N136" s="20">
+        <v>5.2230303030303036</v>
+      </c>
+      <c r="O136" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A137" s="52"/>
+      <c r="B137" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" s="19">
+        <v>29</v>
+      </c>
+      <c r="E137" s="19">
+        <v>55</v>
+      </c>
+      <c r="F137" s="25">
+        <v>0</v>
+      </c>
+      <c r="G137" s="19">
+        <v>2</v>
+      </c>
+      <c r="H137" s="19">
+        <v>1</v>
+      </c>
+      <c r="I137" s="19">
+        <v>1</v>
+      </c>
+      <c r="J137" s="19">
+        <v>1</v>
+      </c>
+      <c r="K137" s="19">
+        <v>3</v>
+      </c>
+      <c r="L137" s="20">
+        <v>412.36</v>
+      </c>
+      <c r="M137" s="21">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="N137" s="20">
+        <v>14.219310344827587</v>
+      </c>
+      <c r="O137" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A138" s="52"/>
+      <c r="B138" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" s="19">
+        <v>28</v>
+      </c>
+      <c r="E138" s="19">
+        <v>52</v>
+      </c>
+      <c r="F138" s="25">
+        <v>0</v>
+      </c>
+      <c r="G138" s="19">
+        <v>3</v>
+      </c>
+      <c r="H138" s="19">
+        <v>3</v>
+      </c>
+      <c r="I138" s="19">
+        <v>1</v>
+      </c>
+      <c r="J138" s="19">
+        <v>1</v>
+      </c>
+      <c r="K138" s="19">
+        <v>3</v>
+      </c>
+      <c r="L138" s="20">
+        <v>132.35999999999999</v>
+      </c>
+      <c r="M138" s="21">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N138" s="20">
+        <v>4.7271428571428569</v>
+      </c>
+      <c r="O138" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A139" s="52"/>
+      <c r="B139" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="19">
+        <v>14</v>
+      </c>
+      <c r="E139" s="19">
+        <v>27</v>
+      </c>
+      <c r="F139" s="25">
+        <v>0</v>
+      </c>
+      <c r="G139" s="19">
+        <v>2</v>
+      </c>
+      <c r="H139" s="19">
+        <v>2</v>
+      </c>
+      <c r="I139" s="25">
+        <v>0</v>
+      </c>
+      <c r="J139" s="25">
+        <v>0</v>
+      </c>
+      <c r="K139" s="25">
+        <v>0</v>
+      </c>
+      <c r="L139" s="22">
+        <v>0</v>
+      </c>
+      <c r="M139" s="21">
+        <v>0</v>
+      </c>
+      <c r="N139" s="22">
+        <v>0</v>
+      </c>
+      <c r="O139" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A140" s="52"/>
+      <c r="B140" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="19">
+        <v>29</v>
+      </c>
+      <c r="E140" s="19">
+        <v>80</v>
+      </c>
+      <c r="F140" s="19">
+        <v>1</v>
+      </c>
+      <c r="G140" s="19">
+        <v>6</v>
+      </c>
+      <c r="H140" s="19">
+        <v>5</v>
+      </c>
+      <c r="I140" s="25">
+        <v>0</v>
+      </c>
+      <c r="J140" s="25">
+        <v>0</v>
+      </c>
+      <c r="K140" s="25">
+        <v>0</v>
+      </c>
+      <c r="L140" s="22">
+        <v>0</v>
+      </c>
+      <c r="M140" s="21">
+        <v>0</v>
+      </c>
+      <c r="N140" s="22">
+        <v>0</v>
+      </c>
+      <c r="O140" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O77"/>
-  <mergeCells count="19">
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A114:A119"/>
+  <mergeCells count="20">
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A135:A140"/>
     <mergeCell ref="A72:A77"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>
@@ -9398,66 +9768,73 @@
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B7">
+    <cfRule type="duplicateValues" dxfId="20" priority="21" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B14">
     <cfRule type="duplicateValues" dxfId="19" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B14">
+  <conditionalFormatting sqref="B16:B21">
     <cfRule type="duplicateValues" dxfId="18" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
+  <conditionalFormatting sqref="B23:B28">
     <cfRule type="duplicateValues" dxfId="17" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B28">
+  <conditionalFormatting sqref="B30:B35">
     <cfRule type="duplicateValues" dxfId="16" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B35">
+  <conditionalFormatting sqref="B37:B42">
     <cfRule type="duplicateValues" dxfId="15" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B42">
+  <conditionalFormatting sqref="B44:B49">
     <cfRule type="duplicateValues" dxfId="14" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B49">
+  <conditionalFormatting sqref="B51:B56">
     <cfRule type="duplicateValues" dxfId="13" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B56">
+  <conditionalFormatting sqref="B58:B63">
     <cfRule type="duplicateValues" dxfId="12" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B63">
+  <conditionalFormatting sqref="B65:B70">
     <cfRule type="duplicateValues" dxfId="11" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B70">
+  <conditionalFormatting sqref="B72:B77">
     <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B77">
+  <conditionalFormatting sqref="B79:B84">
     <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B84">
+  <conditionalFormatting sqref="B86:B91">
     <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B91">
+  <conditionalFormatting sqref="B93:B98">
     <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B98">
+  <conditionalFormatting sqref="B100:B105">
     <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B105">
-    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B107:B112">
-    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B119">
+    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B126">
     <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B126">
+  <conditionalFormatting sqref="B128:B133">
     <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B133">
+  <conditionalFormatting sqref="B135:B140">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9629,7 +10006,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="6"/>
@@ -9651,7 +10028,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
@@ -9666,14 +10043,14 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -9688,11 +10065,11 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="G6" s="7" t="s">
         <v>92</v>
       </c>
@@ -9986,7 +10363,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="54">
+      <c r="A9" s="55">
         <v>42877</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -10017,7 +10394,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="34" t="s">
         <v>131</v>
       </c>
@@ -10048,7 +10425,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="54">
+      <c r="A11" s="55">
         <v>42878</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -10079,7 +10456,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="34" t="s">
         <v>136</v>
       </c>
@@ -10108,7 +10485,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="34" t="s">
         <v>121</v>
       </c>
@@ -10168,7 +10545,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="54">
+      <c r="A15" s="55">
         <v>42880</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -10197,7 +10574,7 @@
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="34" t="s">
         <v>116</v>
       </c>
@@ -10224,7 +10601,7 @@
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="34" t="s">
         <v>131</v>
       </c>
@@ -10253,7 +10630,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="34" t="s">
         <v>116</v>
       </c>
@@ -10282,7 +10659,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="34" t="s">
         <v>116</v>
       </c>
@@ -10311,7 +10688,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="34" t="s">
         <v>131</v>
       </c>
@@ -10340,7 +10717,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="55">
+      <c r="A21" s="56">
         <v>42881</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -10380,7 +10757,7 @@
       <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="30" t="s">
         <v>185</v>
       </c>
@@ -10413,7 +10790,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="30" t="s">
         <v>181</v>
       </c>
@@ -10446,7 +10823,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="30" t="s">
         <v>131</v>
       </c>
@@ -10479,7 +10856,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="34" t="s">
         <v>191</v>
       </c>
@@ -10512,7 +10889,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="53">
+      <c r="A26" s="54">
         <v>20170527</v>
       </c>
       <c r="B26" s="30" t="s">
@@ -10545,7 +10922,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="30" t="s">
         <v>131</v>
       </c>
@@ -10576,7 +10953,7 @@
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="53">
+      <c r="A28" s="54">
         <v>20170602</v>
       </c>
       <c r="B28" s="34" t="s">
@@ -10605,7 +10982,7 @@
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="34" t="s">
         <v>217</v>
       </c>
@@ -10632,7 +11009,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="30" t="s">
         <v>131</v>
       </c>
@@ -10728,14 +11105,14 @@
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="41"/>

--- a/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/关键词统计/关键词排名.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="298">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1149,47 @@
   </si>
   <si>
     <t>237-258-260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170612-20170618</t>
+  </si>
+  <si>
+    <t>20170605-20170611</t>
+  </si>
+  <si>
+    <t>【东兴馆】越风情 夹心排糖 越南特产糖果 408克2袋</t>
+  </si>
+  <si>
+    <t>80-78-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299-0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67-66-66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-22-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45-46-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-18-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52-51-54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52-53-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,9 +1419,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1465,6 +1503,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,7 +1526,67 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2003,11 +2107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2054,7 +2158,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="52">
+      <c r="A3" s="53">
         <v>20170516</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2071,7 +2175,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2190,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2102,10 +2206,10 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="52">
+      <c r="A7" s="53">
         <v>20170523</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2119,8 +2223,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2129,8 +2233,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2243,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2151,25 +2255,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+      <c r="A14" s="53">
         <v>20170524</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2186,8 +2290,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2205,8 +2309,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -2224,8 +2328,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2233,28 +2337,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52">
+      <c r="A21" s="53">
         <v>20170525</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2271,40 +2375,40 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="53"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52">
+      <c r="A24" s="53">
         <v>20170525</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52">
+      <c r="A27" s="53">
         <v>20170530</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="53" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -2315,208 +2419,221 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:8" s="27" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="52">
+      <c r="C28" s="53"/>
+    </row>
+    <row r="29" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="53">
         <v>20170601</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="53"/>
+      <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="52"/>
-    </row>
-    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52">
+      <c r="C31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:8" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="53">
         <v>20170602</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="29" t="s">
+    <row r="34" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="53"/>
+      <c r="B34" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="52"/>
-    </row>
-    <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:8" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="52">
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:8" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53">
         <v>20170605</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="1:8" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="53"/>
+      <c r="B37" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="52"/>
-    </row>
-    <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:8" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52">
+      <c r="C37" s="53"/>
+    </row>
+    <row r="38" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:8" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="53">
         <v>20170607</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="43" t="s">
+    <row r="40" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="53"/>
+      <c r="B40" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:8" s="44" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="52">
+      <c r="C40" s="53"/>
+    </row>
+    <row r="41" spans="1:8" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:8" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="53">
         <v>20170612</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
-      <c r="B43" s="44" t="s">
+    <row r="43" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="53"/>
+      <c r="B43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="52"/>
-    </row>
-    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:8" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="C43" s="53"/>
+    </row>
+    <row r="44" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:8" s="47" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="53">
         <v>20170613</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="48" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="48" t="s">
+    <row r="46" spans="1:8" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="53"/>
+      <c r="B46" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="52"/>
-    </row>
-    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:8" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="52">
+      <c r="C46" s="53"/>
+    </row>
+    <row r="47" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="53">
         <v>20170620</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="51" t="s">
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="53"/>
+      <c r="B49" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="53"/>
+    </row>
+    <row r="50" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:6" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="53">
+        <v>20170622</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="52" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="53"/>
+      <c r="B52" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
+  <mergeCells count="29">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C21:C22"/>
@@ -2531,6 +2648,17 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2540,11 +2668,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2595,7 +2723,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="52">
+      <c r="A3" s="53">
         <v>20170515</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2603,23 +2731,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="52">
+      <c r="A7" s="53">
         <v>20170523</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2636,8 +2764,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2652,8 +2780,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2666,143 +2794,143 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
+      <c r="A11" s="53">
         <v>20170524</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="53">
         <v>20170525</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52">
+      <c r="A19" s="53">
         <v>20170526</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -2828,189 +2956,216 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27">
+    <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
         <v>20170601</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+    <row r="26" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28">
         <v>20170602</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>40033</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42">
+    <row r="28" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41">
         <v>20170605</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43">
+    <row r="30" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="42">
         <v>20170607</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="J31" s="43" t="s">
+      <c r="E31" s="27"/>
+      <c r="J31" s="42" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44">
+    <row r="32" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="43">
         <v>20170612</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>39636</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="43" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48">
+    <row r="34" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="47">
         <v>20170614</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="47" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50">
+    <row r="36" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="49">
         <v>20170619</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51">
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="50">
         <v>20170620</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="50" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="52">
+        <v>20170622</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="27">
+        <v>40858</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3053,11 +3208,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3098,10 +3253,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="52">
+      <c r="A3" s="53">
         <v>20170523</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3115,8 +3270,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3125,8 +3280,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3135,11 +3290,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3156,8 +3311,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3169,8 +3324,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3183,13 +3338,13 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
+      <c r="A11" s="53">
         <v>20170524</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3197,11 +3352,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
@@ -3214,13 +3369,13 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+      <c r="A14" s="53">
         <v>20170525</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3231,11 +3386,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="E15" s="4" t="s">
         <v>102</v>
       </c>
@@ -3252,13 +3407,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52">
+      <c r="A17" s="53">
         <v>20170526</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3269,11 +3424,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="E18" s="10" t="s">
         <v>101</v>
       </c>
@@ -3286,13 +3441,13 @@
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52">
+      <c r="A20" s="53">
         <v>20170530</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="53" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -3301,11 +3456,11 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="E21" s="17" t="s">
         <v>163</v>
       </c>
@@ -3316,228 +3471,261 @@
         <v>39239</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52">
+    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:7" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="53">
         <v>20170601</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="1:7" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="53"/>
+      <c r="B24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="53"/>
+      <c r="E24" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52">
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:7" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="53">
         <v>20170602</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="1:7" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="53"/>
+      <c r="B27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="E27" s="29" t="s">
+      <c r="C27" s="53"/>
+      <c r="E27" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52">
+    <row r="28" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="53">
         <v>20170605</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="42" t="s">
+    <row r="30" spans="1:7" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="53"/>
+      <c r="B30" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="53"/>
+      <c r="E30" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:7" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52">
+    <row r="31" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="53">
         <v>20170607</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="43" t="s">
+    <row r="33" spans="1:13" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="53"/>
+      <c r="B33" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="E33" s="43" t="s">
+      <c r="C33" s="53"/>
+      <c r="E33" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+    <row r="34" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:13" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="53">
         <v>20170612</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="52"/>
-      <c r="B36" s="44" t="s">
+    <row r="36" spans="1:13" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53"/>
+      <c r="B36" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="E36" s="44" t="s">
+      <c r="C36" s="53"/>
+      <c r="E36" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="27">
         <v>37683</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="52">
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:13" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="53">
         <v>20170614</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="48" t="s">
+    <row r="39" spans="1:13" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="53"/>
+      <c r="B39" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="E39" s="48" t="s">
+      <c r="C39" s="53"/>
+      <c r="E39" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="47">
         <v>1616</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52">
+    <row r="40" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:13" s="49" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="53">
         <v>20170620</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="50" t="s">
+    <row r="42" spans="1:13" s="49" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="53"/>
+      <c r="B42" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="E42" s="50" t="s">
+      <c r="C42" s="53"/>
+      <c r="E42" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="27" t="s">
         <v>283</v>
       </c>
     </row>
+    <row r="43" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:13" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="53">
+        <v>20170622</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="27">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="53"/>
+      <c r="B45" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="E45" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C17:C18"/>
@@ -3586,86 +3774,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B31" sqref="B31:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="24" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24"/>
-    <col min="9" max="9" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="24"/>
-    <col min="11" max="11" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="24"/>
-    <col min="13" max="13" width="17.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="24" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="21.875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="18" style="51" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="51" customWidth="1"/>
+    <col min="4" max="5" width="7.125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="11" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="51"/>
+    <col min="9" max="9" width="11" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="51"/>
+    <col min="11" max="11" width="13" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="51"/>
+    <col min="13" max="13" width="17.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="51" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="51" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="51" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="12">
@@ -3706,11 +3894,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="12">
@@ -3751,11 +3939,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="12">
@@ -3796,11 +3984,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="12">
@@ -3841,11 +4029,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="12">
@@ -3886,11 +4074,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="12">
@@ -3930,15 +4118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="51" t="s">
         <v>173</v>
       </c>
       <c r="D9" s="12">
@@ -3979,11 +4167,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="51" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="12">
@@ -4024,11 +4212,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="51" t="s">
         <v>175</v>
       </c>
       <c r="D11" s="12">
@@ -4064,16 +4252,16 @@
       <c r="N11" s="13">
         <v>7.04</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="51" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="12">
@@ -4114,11 +4302,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="51" t="s">
         <v>174</v>
       </c>
       <c r="D13" s="12">
@@ -4159,11 +4347,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D14" s="12">
@@ -4172,7 +4360,7 @@
       <c r="E14" s="12">
         <v>134</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="51">
         <v>0</v>
       </c>
       <c r="G14" s="12">
@@ -4203,14 +4391,589 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="19">
+        <v>227</v>
+      </c>
+      <c r="E17" s="19">
+        <v>449</v>
+      </c>
+      <c r="F17" s="19">
+        <v>4</v>
+      </c>
+      <c r="G17" s="19">
+        <v>31</v>
+      </c>
+      <c r="H17" s="19">
+        <v>29</v>
+      </c>
+      <c r="I17" s="19">
+        <v>15</v>
+      </c>
+      <c r="J17" s="19">
+        <v>15</v>
+      </c>
+      <c r="K17" s="19">
+        <v>19</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1207.4200000000005</v>
+      </c>
+      <c r="M17" s="21">
+        <v>6.6079295154185022E-2</v>
+      </c>
+      <c r="N17" s="20">
+        <v>5.3190308370044077</v>
+      </c>
+      <c r="O17" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="53"/>
+      <c r="B18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="19">
+        <v>238</v>
+      </c>
+      <c r="E18" s="19">
+        <v>576</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>38</v>
+      </c>
+      <c r="H18" s="19">
+        <v>23</v>
+      </c>
+      <c r="I18" s="19">
+        <v>13</v>
+      </c>
+      <c r="J18" s="19">
+        <v>13</v>
+      </c>
+      <c r="K18" s="19">
+        <v>17</v>
+      </c>
+      <c r="L18" s="20">
+        <v>990.70000000000039</v>
+      </c>
+      <c r="M18" s="21">
+        <v>5.4621848739495799E-2</v>
+      </c>
+      <c r="N18" s="20">
+        <v>4.1626050420168079</v>
+      </c>
+      <c r="O18" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="53"/>
+      <c r="B19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="19">
+        <v>145</v>
+      </c>
+      <c r="E19" s="19">
+        <v>445</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>35</v>
+      </c>
+      <c r="H19" s="19">
+        <v>26</v>
+      </c>
+      <c r="I19" s="19">
+        <v>12</v>
+      </c>
+      <c r="J19" s="19">
+        <v>13</v>
+      </c>
+      <c r="K19" s="19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1360.24</v>
+      </c>
+      <c r="M19" s="21">
+        <v>8.2758620689655171E-2</v>
+      </c>
+      <c r="N19" s="20">
+        <v>9.3809655172413802</v>
+      </c>
+      <c r="O19" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="53"/>
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="19">
+        <v>158</v>
+      </c>
+      <c r="E20" s="19">
+        <v>337</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>18</v>
+      </c>
+      <c r="H20" s="19">
+        <v>16</v>
+      </c>
+      <c r="I20" s="19">
+        <v>8</v>
+      </c>
+      <c r="J20" s="19">
+        <v>9</v>
+      </c>
+      <c r="K20" s="19">
+        <v>11</v>
+      </c>
+      <c r="L20" s="20">
+        <v>829.98</v>
+      </c>
+      <c r="M20" s="21">
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="N20" s="20">
+        <v>5.2530379746835445</v>
+      </c>
+      <c r="O20" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="53"/>
+      <c r="B21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="19">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19">
+        <v>94</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>7</v>
+      </c>
+      <c r="H21" s="19">
+        <v>6</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="20">
+        <v>39</v>
+      </c>
+      <c r="M21" s="21">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="53"/>
+      <c r="B22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="19">
+        <v>160</v>
+      </c>
+      <c r="E22" s="19">
+        <v>289</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="19">
+        <v>360</v>
+      </c>
+      <c r="E24" s="19">
+        <v>748</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="G24" s="19">
+        <v>54</v>
+      </c>
+      <c r="H24" s="19">
+        <v>43</v>
+      </c>
+      <c r="I24" s="19">
+        <v>21</v>
+      </c>
+      <c r="J24" s="19">
+        <v>21</v>
+      </c>
+      <c r="K24" s="19">
+        <v>27</v>
+      </c>
+      <c r="L24" s="20">
+        <v>1732.3200000000008</v>
+      </c>
+      <c r="M24" s="21">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="N24" s="20">
+        <v>4.8120000000000021</v>
+      </c>
+      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="53"/>
+      <c r="B25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="19">
+        <v>231</v>
+      </c>
+      <c r="E25" s="19">
+        <v>499</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>48</v>
+      </c>
+      <c r="H25" s="19">
+        <v>27</v>
+      </c>
+      <c r="I25" s="19">
+        <v>10</v>
+      </c>
+      <c r="J25" s="19">
+        <v>10</v>
+      </c>
+      <c r="K25" s="19">
+        <v>12</v>
+      </c>
+      <c r="L25" s="20">
+        <v>690.44</v>
+      </c>
+      <c r="M25" s="21">
+        <v>4.3290043290043288E-2</v>
+      </c>
+      <c r="N25" s="20">
+        <v>2.988917748917749</v>
+      </c>
+      <c r="O25" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="53"/>
+      <c r="B26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="19">
+        <v>205</v>
+      </c>
+      <c r="E26" s="19">
+        <v>403</v>
+      </c>
+      <c r="F26" s="19">
+        <v>4</v>
+      </c>
+      <c r="G26" s="19">
+        <v>20</v>
+      </c>
+      <c r="H26" s="19">
+        <v>17</v>
+      </c>
+      <c r="I26" s="19">
+        <v>9</v>
+      </c>
+      <c r="J26" s="19">
+        <v>9</v>
+      </c>
+      <c r="K26" s="19">
+        <v>10</v>
+      </c>
+      <c r="L26" s="20">
+        <v>780.44</v>
+      </c>
+      <c r="M26" s="21">
+        <v>4.3902439024390241E-2</v>
+      </c>
+      <c r="N26" s="20">
+        <v>3.8070243902439027</v>
+      </c>
+      <c r="O26" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="53"/>
+      <c r="B27" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="19">
+        <v>166</v>
+      </c>
+      <c r="E27" s="19">
+        <v>337</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>25</v>
+      </c>
+      <c r="H27" s="19">
+        <v>22</v>
+      </c>
+      <c r="I27" s="19">
+        <v>9</v>
+      </c>
+      <c r="J27" s="19">
+        <v>9</v>
+      </c>
+      <c r="K27" s="19">
+        <v>12</v>
+      </c>
+      <c r="L27" s="20">
+        <v>772.08000000000015</v>
+      </c>
+      <c r="M27" s="21">
+        <v>5.4216867469879519E-2</v>
+      </c>
+      <c r="N27" s="20">
+        <v>4.6510843373493982</v>
+      </c>
+      <c r="O27" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="53"/>
+      <c r="B28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="19">
+        <v>106</v>
+      </c>
+      <c r="E28" s="19">
+        <v>187</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19">
+        <v>13</v>
+      </c>
+      <c r="I28" s="19">
+        <v>7</v>
+      </c>
+      <c r="J28" s="19">
+        <v>7</v>
+      </c>
+      <c r="K28" s="19">
+        <v>8</v>
+      </c>
+      <c r="L28" s="20">
+        <v>312</v>
+      </c>
+      <c r="M28" s="21">
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="N28" s="20">
+        <v>2.9433962264150941</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="53"/>
+      <c r="B29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="19">
+        <v>175</v>
+      </c>
+      <c r="E29" s="19">
+        <v>352</v>
+      </c>
+      <c r="F29" s="19">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>16</v>
+      </c>
+      <c r="H29" s="19">
+        <v>9</v>
+      </c>
+      <c r="I29" s="19">
+        <v>3</v>
+      </c>
+      <c r="J29" s="19">
+        <v>3</v>
+      </c>
+      <c r="K29" s="19">
+        <v>5</v>
+      </c>
+      <c r="L29" s="20">
+        <v>784.72</v>
+      </c>
+      <c r="M29" s="21">
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="N29" s="20">
+        <v>4.4841142857142859</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="53"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="53"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="53"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="53"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="53"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A31:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B14">
-    <cfRule type="duplicateValues" dxfId="21" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B29">
+    <cfRule type="duplicateValues" dxfId="25" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B22">
+    <cfRule type="duplicateValues" dxfId="24" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4219,87 +4982,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J138" sqref="J138"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="51" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="51" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="51" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="51" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="9.25" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="52" customWidth="1"/>
+    <col min="4" max="5" width="11.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="52" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="52" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="52" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="52">
+      <c r="A2" s="53">
         <v>20170524</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="12">
@@ -4335,16 +5098,16 @@
       <c r="N2" s="13">
         <v>20.208333333333332</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="12">
@@ -4380,16 +5143,16 @@
       <c r="N3" s="13">
         <v>6.2727272727272725</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="12">
@@ -4398,7 +5161,7 @@
       <c r="E4" s="12">
         <v>28</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="52">
         <v>0</v>
       </c>
       <c r="G4" s="12">
@@ -4425,16 +5188,16 @@
       <c r="N4" s="13">
         <v>6.8461538461538458</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="12">
@@ -4443,7 +5206,7 @@
       <c r="E5" s="12">
         <v>32</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="52">
         <v>0</v>
       </c>
       <c r="G5" s="12">
@@ -4470,16 +5233,16 @@
       <c r="N5" s="13">
         <v>14.857142857142858</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="12">
@@ -4488,7 +5251,7 @@
       <c r="E6" s="12">
         <v>29</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="52">
         <v>0</v>
       </c>
       <c r="G6" s="12">
@@ -4515,16 +5278,16 @@
       <c r="N6" s="13">
         <v>4.4117647058823533</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="12">
@@ -4533,22 +5296,22 @@
       <c r="E7" s="12">
         <v>13</v>
       </c>
-      <c r="F7" s="51">
-        <v>0</v>
-      </c>
-      <c r="G7" s="51">
-        <v>0</v>
-      </c>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="51">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51">
+      <c r="F7" s="52">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
         <v>0</v>
       </c>
       <c r="L7" s="15">
@@ -4560,19 +5323,19 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
-      <c r="O7" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O7" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="53">
         <v>20170525</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="12">
@@ -4613,11 +5376,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="12">
@@ -4653,16 +5416,16 @@
       <c r="N10" s="13">
         <v>7</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="12">
@@ -4698,16 +5461,16 @@
       <c r="N11" s="13">
         <v>10.777777777777779</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="12">
@@ -4716,13 +5479,13 @@
       <c r="E12" s="12">
         <v>27</v>
       </c>
-      <c r="F12" s="51">
-        <v>0</v>
-      </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
+      <c r="F12" s="52">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0</v>
+      </c>
+      <c r="H12" s="52">
         <v>0</v>
       </c>
       <c r="I12" s="12">
@@ -4743,16 +5506,16 @@
       <c r="N12" s="13">
         <v>4.6470588235294121</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="12">
@@ -4761,7 +5524,7 @@
       <c r="E13" s="12">
         <v>34</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="52">
         <v>0</v>
       </c>
       <c r="G13" s="12">
@@ -4770,13 +5533,13 @@
       <c r="H13" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="51">
-        <v>0</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0</v>
-      </c>
-      <c r="K13" s="51">
+      <c r="I13" s="52">
+        <v>0</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0</v>
+      </c>
+      <c r="K13" s="52">
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -4793,11 +5556,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="12">
@@ -4806,7 +5569,7 @@
       <c r="E14" s="12">
         <v>17</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="52">
         <v>0</v>
       </c>
       <c r="G14" s="12">
@@ -4815,13 +5578,13 @@
       <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="I14" s="51">
-        <v>0</v>
-      </c>
-      <c r="J14" s="51">
-        <v>0</v>
-      </c>
-      <c r="K14" s="51">
+      <c r="I14" s="52">
+        <v>0</v>
+      </c>
+      <c r="J14" s="52">
+        <v>0</v>
+      </c>
+      <c r="K14" s="52">
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -4833,19 +5596,19 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O14" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="52">
+      <c r="A16" s="53">
         <v>20170526</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="12">
@@ -4886,11 +5649,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="12">
@@ -4926,16 +5689,16 @@
       <c r="N17" s="13">
         <v>13.166666666666666</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="12">
@@ -4944,7 +5707,7 @@
       <c r="E18" s="12">
         <v>31</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="52">
         <v>0</v>
       </c>
       <c r="G18" s="12">
@@ -4971,16 +5734,16 @@
       <c r="N18" s="13">
         <v>7.7777777777777777</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="12">
@@ -4989,7 +5752,7 @@
       <c r="E19" s="12">
         <v>33</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="52">
         <v>0</v>
       </c>
       <c r="G19" s="12">
@@ -5016,16 +5779,16 @@
       <c r="N19" s="13">
         <v>9.8571428571428577</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="12">
@@ -5034,22 +5797,22 @@
       <c r="E20" s="12">
         <v>49</v>
       </c>
-      <c r="F20" s="51">
-        <v>0</v>
-      </c>
-      <c r="G20" s="51">
-        <v>0</v>
-      </c>
-      <c r="H20" s="51">
-        <v>0</v>
-      </c>
-      <c r="I20" s="51">
-        <v>0</v>
-      </c>
-      <c r="J20" s="51">
-        <v>0</v>
-      </c>
-      <c r="K20" s="51">
+      <c r="F20" s="52">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0</v>
+      </c>
+      <c r="I20" s="52">
+        <v>0</v>
+      </c>
+      <c r="J20" s="52">
+        <v>0</v>
+      </c>
+      <c r="K20" s="52">
         <v>0</v>
       </c>
       <c r="L20" s="15">
@@ -5061,16 +5824,16 @@
       <c r="N20" s="15">
         <v>0</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="12">
@@ -5079,22 +5842,22 @@
       <c r="E21" s="12">
         <v>27</v>
       </c>
-      <c r="F21" s="51">
-        <v>0</v>
-      </c>
-      <c r="G21" s="51">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51">
-        <v>0</v>
-      </c>
-      <c r="I21" s="51">
-        <v>0</v>
-      </c>
-      <c r="J21" s="51">
-        <v>0</v>
-      </c>
-      <c r="K21" s="51">
+      <c r="F21" s="52">
+        <v>0</v>
+      </c>
+      <c r="G21" s="52">
+        <v>0</v>
+      </c>
+      <c r="H21" s="52">
+        <v>0</v>
+      </c>
+      <c r="I21" s="52">
+        <v>0</v>
+      </c>
+      <c r="J21" s="52">
+        <v>0</v>
+      </c>
+      <c r="K21" s="52">
         <v>0</v>
       </c>
       <c r="L21" s="15">
@@ -5106,19 +5869,19 @@
       <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O21" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="52">
+      <c r="A23" s="53">
         <v>20170527</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="19">
@@ -5127,7 +5890,7 @@
       <c r="E23" s="19">
         <v>45</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>0</v>
       </c>
       <c r="G23" s="19">
@@ -5159,11 +5922,11 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="19">
@@ -5199,16 +5962,16 @@
       <c r="N24" s="20">
         <v>5.0370370370370372</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="19">
@@ -5217,7 +5980,7 @@
       <c r="E25" s="19">
         <v>27</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>0</v>
       </c>
       <c r="G25" s="19">
@@ -5249,11 +6012,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="19">
@@ -5262,7 +6025,7 @@
       <c r="E26" s="19">
         <v>28</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
       <c r="G26" s="19">
@@ -5289,16 +6052,16 @@
       <c r="N26" s="20">
         <v>11.923076923076923</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="19">
@@ -5307,7 +6070,7 @@
       <c r="E27" s="19">
         <v>39</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>0</v>
       </c>
       <c r="G27" s="19">
@@ -5334,16 +6097,16 @@
       <c r="N27" s="20">
         <v>16.75</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="19">
@@ -5352,7 +6115,7 @@
       <c r="E28" s="19">
         <v>19</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>0</v>
       </c>
       <c r="G28" s="19">
@@ -5361,13 +6124,13 @@
       <c r="H28" s="19">
         <v>1</v>
       </c>
-      <c r="I28" s="25">
-        <v>0</v>
-      </c>
-      <c r="J28" s="25">
-        <v>0</v>
-      </c>
-      <c r="K28" s="25">
+      <c r="I28" s="24">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
         <v>0</v>
       </c>
       <c r="L28" s="22">
@@ -5379,19 +6142,19 @@
       <c r="N28" s="22">
         <v>0</v>
       </c>
-      <c r="O28" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="52">
+      <c r="A30" s="53">
         <v>20170528</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="19">
@@ -5427,16 +6190,16 @@
       <c r="N30" s="20">
         <v>7.7777777777777777</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="19">
@@ -5454,13 +6217,13 @@
       <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="I31" s="25">
-        <v>0</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0</v>
-      </c>
-      <c r="K31" s="25">
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
         <v>0</v>
       </c>
       <c r="L31" s="22">
@@ -5472,16 +6235,16 @@
       <c r="N31" s="22">
         <v>0</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="19">
@@ -5490,7 +6253,7 @@
       <c r="E32" s="19">
         <v>27</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>0</v>
       </c>
       <c r="G32" s="19">
@@ -5499,13 +6262,13 @@
       <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="I32" s="25">
-        <v>0</v>
-      </c>
-      <c r="J32" s="25">
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
+      <c r="I32" s="24">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <v>0</v>
+      </c>
+      <c r="K32" s="24">
         <v>0</v>
       </c>
       <c r="L32" s="22">
@@ -5517,16 +6280,16 @@
       <c r="N32" s="22">
         <v>0</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="19">
@@ -5544,13 +6307,13 @@
       <c r="H33" s="19">
         <v>2</v>
       </c>
-      <c r="I33" s="25">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25">
-        <v>0</v>
-      </c>
-      <c r="K33" s="25">
+      <c r="I33" s="24">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24">
+        <v>0</v>
+      </c>
+      <c r="K33" s="24">
         <v>0</v>
       </c>
       <c r="L33" s="22">
@@ -5567,11 +6330,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="19">
@@ -5580,22 +6343,22 @@
       <c r="E34" s="19">
         <v>9</v>
       </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <v>0</v>
-      </c>
-      <c r="I34" s="25">
-        <v>0</v>
-      </c>
-      <c r="J34" s="25">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
         <v>0</v>
       </c>
       <c r="L34" s="22">
@@ -5612,11 +6375,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="19">
@@ -5625,22 +6388,22 @@
       <c r="E35" s="19">
         <v>9</v>
       </c>
-      <c r="F35" s="25">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>0</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
         <v>0</v>
       </c>
       <c r="L35" s="22">
@@ -5652,19 +6415,19 @@
       <c r="N35" s="22">
         <v>0</v>
       </c>
-      <c r="O35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="52">
+      <c r="A37" s="53">
         <v>20170529</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="12">
@@ -5673,7 +6436,7 @@
       <c r="E37" s="12">
         <v>23</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="52">
         <v>0</v>
       </c>
       <c r="G37" s="12">
@@ -5700,16 +6463,16 @@
       <c r="N37" s="13">
         <v>16</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="12">
@@ -5718,7 +6481,7 @@
       <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="52">
         <v>0</v>
       </c>
       <c r="G38" s="12">
@@ -5745,16 +6508,16 @@
       <c r="N38" s="13">
         <v>7</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="12">
@@ -5763,22 +6526,22 @@
       <c r="E39" s="12">
         <v>27</v>
       </c>
-      <c r="F39" s="51">
-        <v>0</v>
-      </c>
-      <c r="G39" s="51">
-        <v>0</v>
-      </c>
-      <c r="H39" s="51">
-        <v>0</v>
-      </c>
-      <c r="I39" s="51">
-        <v>0</v>
-      </c>
-      <c r="J39" s="51">
-        <v>0</v>
-      </c>
-      <c r="K39" s="51">
+      <c r="F39" s="52">
+        <v>0</v>
+      </c>
+      <c r="G39" s="52">
+        <v>0</v>
+      </c>
+      <c r="H39" s="52">
+        <v>0</v>
+      </c>
+      <c r="I39" s="52">
+        <v>0</v>
+      </c>
+      <c r="J39" s="52">
+        <v>0</v>
+      </c>
+      <c r="K39" s="52">
         <v>0</v>
       </c>
       <c r="L39" s="15">
@@ -5795,11 +6558,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="12">
@@ -5808,22 +6571,22 @@
       <c r="E40" s="12">
         <v>15</v>
       </c>
-      <c r="F40" s="51">
-        <v>0</v>
-      </c>
-      <c r="G40" s="51">
-        <v>0</v>
-      </c>
-      <c r="H40" s="51">
-        <v>0</v>
-      </c>
-      <c r="I40" s="51">
-        <v>0</v>
-      </c>
-      <c r="J40" s="51">
-        <v>0</v>
-      </c>
-      <c r="K40" s="51">
+      <c r="F40" s="52">
+        <v>0</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0</v>
+      </c>
+      <c r="I40" s="52">
+        <v>0</v>
+      </c>
+      <c r="J40" s="52">
+        <v>0</v>
+      </c>
+      <c r="K40" s="52">
         <v>0</v>
       </c>
       <c r="L40" s="15">
@@ -5835,16 +6598,16 @@
       <c r="N40" s="15">
         <v>0</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="12">
@@ -5853,22 +6616,22 @@
       <c r="E41" s="12">
         <v>7</v>
       </c>
-      <c r="F41" s="51">
-        <v>0</v>
-      </c>
-      <c r="G41" s="51">
-        <v>0</v>
-      </c>
-      <c r="H41" s="51">
-        <v>0</v>
-      </c>
-      <c r="I41" s="51">
-        <v>0</v>
-      </c>
-      <c r="J41" s="51">
-        <v>0</v>
-      </c>
-      <c r="K41" s="51">
+      <c r="F41" s="52">
+        <v>0</v>
+      </c>
+      <c r="G41" s="52">
+        <v>0</v>
+      </c>
+      <c r="H41" s="52">
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
         <v>0</v>
       </c>
       <c r="L41" s="15">
@@ -5885,11 +6648,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="51" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="12">
@@ -5898,7 +6661,7 @@
       <c r="E42" s="12">
         <v>21</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="52">
         <v>0</v>
       </c>
       <c r="G42" s="12">
@@ -5907,13 +6670,13 @@
       <c r="H42" s="12">
         <v>1</v>
       </c>
-      <c r="I42" s="51">
-        <v>0</v>
-      </c>
-      <c r="J42" s="51">
-        <v>0</v>
-      </c>
-      <c r="K42" s="51">
+      <c r="I42" s="52">
+        <v>0</v>
+      </c>
+      <c r="J42" s="52">
+        <v>0</v>
+      </c>
+      <c r="K42" s="52">
         <v>0</v>
       </c>
       <c r="L42" s="15">
@@ -5925,19 +6688,19 @@
       <c r="N42" s="15">
         <v>0</v>
       </c>
-      <c r="O42" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O42" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="52">
+      <c r="A44" s="53">
         <v>20170531</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="19">
@@ -5946,7 +6709,7 @@
       <c r="E44" s="19">
         <v>62</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <v>0</v>
       </c>
       <c r="G44" s="19">
@@ -5973,16 +6736,16 @@
       <c r="N44" s="20">
         <v>6.5</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="19">
@@ -5991,7 +6754,7 @@
       <c r="E45" s="19">
         <v>47</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="24">
         <v>0</v>
       </c>
       <c r="G45" s="19">
@@ -6018,16 +6781,16 @@
       <c r="N45" s="20">
         <v>3.8695652173913042</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="19">
@@ -6036,22 +6799,22 @@
       <c r="E46" s="19">
         <v>3</v>
       </c>
-      <c r="F46" s="25">
-        <v>0</v>
-      </c>
-      <c r="G46" s="25">
-        <v>0</v>
-      </c>
-      <c r="H46" s="25">
-        <v>0</v>
-      </c>
-      <c r="I46" s="25">
-        <v>0</v>
-      </c>
-      <c r="J46" s="25">
-        <v>0</v>
-      </c>
-      <c r="K46" s="25">
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <v>0</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0</v>
+      </c>
+      <c r="K46" s="24">
         <v>0</v>
       </c>
       <c r="L46" s="22">
@@ -6063,16 +6826,16 @@
       <c r="N46" s="22">
         <v>0</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="19">
@@ -6081,7 +6844,7 @@
       <c r="E47" s="19">
         <v>30</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="24">
         <v>0</v>
       </c>
       <c r="G47" s="19">
@@ -6090,13 +6853,13 @@
       <c r="H47" s="19">
         <v>1</v>
       </c>
-      <c r="I47" s="25">
-        <v>0</v>
-      </c>
-      <c r="J47" s="25">
-        <v>0</v>
-      </c>
-      <c r="K47" s="25">
+      <c r="I47" s="24">
+        <v>0</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24">
         <v>0</v>
       </c>
       <c r="L47" s="22">
@@ -6108,16 +6871,16 @@
       <c r="N47" s="22">
         <v>0</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="19">
@@ -6126,22 +6889,22 @@
       <c r="E48" s="19">
         <v>21</v>
       </c>
-      <c r="F48" s="25">
-        <v>0</v>
-      </c>
-      <c r="G48" s="25">
-        <v>0</v>
-      </c>
-      <c r="H48" s="25">
-        <v>0</v>
-      </c>
-      <c r="I48" s="25">
-        <v>0</v>
-      </c>
-      <c r="J48" s="25">
-        <v>0</v>
-      </c>
-      <c r="K48" s="25">
+      <c r="F48" s="24">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <v>0</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0</v>
+      </c>
+      <c r="K48" s="24">
         <v>0</v>
       </c>
       <c r="L48" s="22">
@@ -6153,16 +6916,16 @@
       <c r="N48" s="22">
         <v>0</v>
       </c>
-      <c r="O48" s="25">
+      <c r="O48" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="19">
@@ -6171,22 +6934,22 @@
       <c r="E49" s="19">
         <v>38</v>
       </c>
-      <c r="F49" s="25">
-        <v>0</v>
-      </c>
-      <c r="G49" s="25">
-        <v>0</v>
-      </c>
-      <c r="H49" s="25">
-        <v>0</v>
-      </c>
-      <c r="I49" s="25">
-        <v>0</v>
-      </c>
-      <c r="J49" s="25">
-        <v>0</v>
-      </c>
-      <c r="K49" s="25">
+      <c r="F49" s="24">
+        <v>0</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="I49" s="24">
+        <v>0</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24">
         <v>0</v>
       </c>
       <c r="L49" s="22">
@@ -6198,19 +6961,19 @@
       <c r="N49" s="22">
         <v>0</v>
       </c>
-      <c r="O49" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="53">
         <v>20170601</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="19">
@@ -6251,11 +7014,11 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="19">
@@ -6264,7 +7027,7 @@
       <c r="E52" s="19">
         <v>40</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="24">
         <v>0</v>
       </c>
       <c r="G52" s="19">
@@ -6296,11 +7059,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="25" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="19">
@@ -6309,7 +7072,7 @@
       <c r="E53" s="19">
         <v>39</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="24">
         <v>0</v>
       </c>
       <c r="G53" s="19">
@@ -6341,11 +7104,11 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="25" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="19">
@@ -6354,7 +7117,7 @@
       <c r="E54" s="19">
         <v>31</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
         <v>0</v>
       </c>
       <c r="G54" s="19">
@@ -6363,13 +7126,13 @@
       <c r="H54" s="19">
         <v>1</v>
       </c>
-      <c r="I54" s="25">
-        <v>0</v>
-      </c>
-      <c r="J54" s="25">
-        <v>0</v>
-      </c>
-      <c r="K54" s="25">
+      <c r="I54" s="24">
+        <v>0</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0</v>
+      </c>
+      <c r="K54" s="24">
         <v>0</v>
       </c>
       <c r="L54" s="22">
@@ -6381,16 +7144,16 @@
       <c r="N54" s="22">
         <v>0</v>
       </c>
-      <c r="O54" s="25">
+      <c r="O54" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="25" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="19">
@@ -6399,22 +7162,22 @@
       <c r="E55" s="19">
         <v>5</v>
       </c>
-      <c r="F55" s="25">
-        <v>0</v>
-      </c>
-      <c r="G55" s="25">
-        <v>0</v>
-      </c>
-      <c r="H55" s="25">
-        <v>0</v>
-      </c>
-      <c r="I55" s="25">
-        <v>0</v>
-      </c>
-      <c r="J55" s="25">
-        <v>0</v>
-      </c>
-      <c r="K55" s="25">
+      <c r="F55" s="24">
+        <v>0</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>0</v>
+      </c>
+      <c r="J55" s="24">
+        <v>0</v>
+      </c>
+      <c r="K55" s="24">
         <v>0</v>
       </c>
       <c r="L55" s="22">
@@ -6431,11 +7194,11 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="19">
@@ -6444,7 +7207,7 @@
       <c r="E56" s="19">
         <v>23</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="24">
         <v>0</v>
       </c>
       <c r="G56" s="19">
@@ -6453,13 +7216,13 @@
       <c r="H56" s="19">
         <v>1</v>
       </c>
-      <c r="I56" s="25">
-        <v>0</v>
-      </c>
-      <c r="J56" s="25">
-        <v>0</v>
-      </c>
-      <c r="K56" s="25">
+      <c r="I56" s="24">
+        <v>0</v>
+      </c>
+      <c r="J56" s="24">
+        <v>0</v>
+      </c>
+      <c r="K56" s="24">
         <v>0</v>
       </c>
       <c r="L56" s="22">
@@ -6475,15 +7238,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="52">
+      <c r="A58" s="53">
         <v>20170602</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D58" s="19">
@@ -6492,13 +7255,13 @@
       <c r="E58" s="19">
         <v>28</v>
       </c>
-      <c r="F58" s="25">
-        <v>0</v>
-      </c>
-      <c r="G58" s="25">
-        <v>0</v>
-      </c>
-      <c r="H58" s="25">
+      <c r="F58" s="24">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
         <v>0</v>
       </c>
       <c r="I58" s="19">
@@ -6519,16 +7282,16 @@
       <c r="N58" s="20">
         <v>4.6470588235294121</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O58" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="52"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="53"/>
+      <c r="B59" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="19">
@@ -6564,16 +7327,16 @@
       <c r="N59" s="20">
         <v>12.176470588235293</v>
       </c>
-      <c r="O59" s="25">
+      <c r="O59" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="52"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="19">
@@ -6582,7 +7345,7 @@
       <c r="E60" s="19">
         <v>76</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="24">
         <v>0</v>
       </c>
       <c r="G60" s="19">
@@ -6609,16 +7372,16 @@
       <c r="N60" s="20">
         <v>3.6842105263157894</v>
       </c>
-      <c r="O60" s="25">
+      <c r="O60" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="19">
@@ -6627,7 +7390,7 @@
       <c r="E61" s="19">
         <v>38</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="24">
         <v>0</v>
       </c>
       <c r="G61" s="19">
@@ -6636,13 +7399,13 @@
       <c r="H61" s="19">
         <v>3</v>
       </c>
-      <c r="I61" s="25">
-        <v>0</v>
-      </c>
-      <c r="J61" s="25">
-        <v>0</v>
-      </c>
-      <c r="K61" s="25">
+      <c r="I61" s="24">
+        <v>0</v>
+      </c>
+      <c r="J61" s="24">
+        <v>0</v>
+      </c>
+      <c r="K61" s="24">
         <v>0</v>
       </c>
       <c r="L61" s="22">
@@ -6659,11 +7422,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="52"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="19">
@@ -6672,22 +7435,22 @@
       <c r="E62" s="19">
         <v>41</v>
       </c>
-      <c r="F62" s="25">
-        <v>0</v>
-      </c>
-      <c r="G62" s="25">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25">
-        <v>0</v>
-      </c>
-      <c r="J62" s="25">
-        <v>0</v>
-      </c>
-      <c r="K62" s="25">
+      <c r="F62" s="24">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <v>0</v>
+      </c>
+      <c r="J62" s="24">
+        <v>0</v>
+      </c>
+      <c r="K62" s="24">
         <v>0</v>
       </c>
       <c r="L62" s="22">
@@ -6699,16 +7462,16 @@
       <c r="N62" s="22">
         <v>0</v>
       </c>
-      <c r="O62" s="25">
+      <c r="O62" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="25" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D63" s="19">
@@ -6717,22 +7480,22 @@
       <c r="E63" s="19">
         <v>7</v>
       </c>
-      <c r="F63" s="25">
-        <v>0</v>
-      </c>
-      <c r="G63" s="25">
-        <v>0</v>
-      </c>
-      <c r="H63" s="25">
-        <v>0</v>
-      </c>
-      <c r="I63" s="25">
-        <v>0</v>
-      </c>
-      <c r="J63" s="25">
-        <v>0</v>
-      </c>
-      <c r="K63" s="25">
+      <c r="F63" s="24">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0</v>
+      </c>
+      <c r="I63" s="24">
+        <v>0</v>
+      </c>
+      <c r="J63" s="24">
+        <v>0</v>
+      </c>
+      <c r="K63" s="24">
         <v>0</v>
       </c>
       <c r="L63" s="22">
@@ -6744,19 +7507,19 @@
       <c r="N63" s="22">
         <v>0</v>
       </c>
-      <c r="O63" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O63" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="52">
+      <c r="A65" s="53">
         <v>20170603</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="19">
@@ -6792,16 +7555,16 @@
       <c r="N65" s="20">
         <v>12.275862068965518</v>
       </c>
-      <c r="O65" s="25">
+      <c r="O65" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
-      <c r="B66" s="25" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="19">
@@ -6810,7 +7573,7 @@
       <c r="E66" s="19">
         <v>33</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="24">
         <v>0</v>
       </c>
       <c r="G66" s="19">
@@ -6842,11 +7605,11 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="25" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="19">
@@ -6855,7 +7618,7 @@
       <c r="E67" s="19">
         <v>26</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="24">
         <v>0</v>
       </c>
       <c r="G67" s="19">
@@ -6887,11 +7650,11 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
-      <c r="B68" s="25" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D68" s="19">
@@ -6932,11 +7695,11 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
-      <c r="B69" s="25" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D69" s="19">
@@ -6945,7 +7708,7 @@
       <c r="E69" s="19">
         <v>18</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="24">
         <v>0</v>
       </c>
       <c r="G69" s="19">
@@ -6954,13 +7717,13 @@
       <c r="H69" s="19">
         <v>1</v>
       </c>
-      <c r="I69" s="25">
-        <v>0</v>
-      </c>
-      <c r="J69" s="25">
-        <v>0</v>
-      </c>
-      <c r="K69" s="25">
+      <c r="I69" s="24">
+        <v>0</v>
+      </c>
+      <c r="J69" s="24">
+        <v>0</v>
+      </c>
+      <c r="K69" s="24">
         <v>0</v>
       </c>
       <c r="L69" s="22">
@@ -6972,16 +7735,16 @@
       <c r="N69" s="22">
         <v>0</v>
       </c>
-      <c r="O69" s="25">
+      <c r="O69" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
-      <c r="B70" s="25" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="19">
@@ -6999,13 +7762,13 @@
       <c r="H70" s="19">
         <v>2</v>
       </c>
-      <c r="I70" s="25">
-        <v>0</v>
-      </c>
-      <c r="J70" s="25">
-        <v>0</v>
-      </c>
-      <c r="K70" s="25">
+      <c r="I70" s="24">
+        <v>0</v>
+      </c>
+      <c r="J70" s="24">
+        <v>0</v>
+      </c>
+      <c r="K70" s="24">
         <v>0</v>
       </c>
       <c r="L70" s="22">
@@ -7021,15 +7784,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="52">
+      <c r="A72" s="53">
         <v>20170606</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D72" s="19">
@@ -7038,7 +7801,7 @@
       <c r="E72" s="19">
         <v>71</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="24">
         <v>0</v>
       </c>
       <c r="G72" s="19">
@@ -7065,16 +7828,16 @@
       <c r="N72" s="20">
         <v>9.6106976744186046</v>
       </c>
-      <c r="O72" s="25">
+      <c r="O72" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="25" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="19">
@@ -7083,7 +7846,7 @@
       <c r="E73" s="19">
         <v>60</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="24">
         <v>0</v>
       </c>
       <c r="G73" s="19">
@@ -7115,11 +7878,11 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
-      <c r="B74" s="25" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D74" s="19">
@@ -7128,7 +7891,7 @@
       <c r="E74" s="19">
         <v>61</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="24">
         <v>0</v>
       </c>
       <c r="G74" s="19">
@@ -7160,11 +7923,11 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="25" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="19">
@@ -7173,7 +7936,7 @@
       <c r="E75" s="19">
         <v>50</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="24">
         <v>0</v>
       </c>
       <c r="G75" s="19">
@@ -7182,13 +7945,13 @@
       <c r="H75" s="19">
         <v>2</v>
       </c>
-      <c r="I75" s="25">
-        <v>0</v>
-      </c>
-      <c r="J75" s="25">
-        <v>0</v>
-      </c>
-      <c r="K75" s="25">
+      <c r="I75" s="24">
+        <v>0</v>
+      </c>
+      <c r="J75" s="24">
+        <v>0</v>
+      </c>
+      <c r="K75" s="24">
         <v>0</v>
       </c>
       <c r="L75" s="22">
@@ -7200,16 +7963,16 @@
       <c r="N75" s="22">
         <v>0</v>
       </c>
-      <c r="O75" s="25">
+      <c r="O75" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="52"/>
-      <c r="B76" s="25" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D76" s="19">
@@ -7218,7 +7981,7 @@
       <c r="E76" s="19">
         <v>9</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="24">
         <v>0</v>
       </c>
       <c r="G76" s="19">
@@ -7227,13 +7990,13 @@
       <c r="H76" s="19">
         <v>1</v>
       </c>
-      <c r="I76" s="25">
-        <v>0</v>
-      </c>
-      <c r="J76" s="25">
-        <v>0</v>
-      </c>
-      <c r="K76" s="25">
+      <c r="I76" s="24">
+        <v>0</v>
+      </c>
+      <c r="J76" s="24">
+        <v>0</v>
+      </c>
+      <c r="K76" s="24">
         <v>0</v>
       </c>
       <c r="L76" s="22">
@@ -7245,16 +8008,16 @@
       <c r="N76" s="22">
         <v>0</v>
       </c>
-      <c r="O76" s="25">
+      <c r="O76" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="52"/>
-      <c r="B77" s="25" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="19">
@@ -7266,19 +8029,19 @@
       <c r="F77" s="19">
         <v>2</v>
       </c>
-      <c r="G77" s="25">
-        <v>0</v>
-      </c>
-      <c r="H77" s="25">
-        <v>0</v>
-      </c>
-      <c r="I77" s="25">
-        <v>0</v>
-      </c>
-      <c r="J77" s="25">
-        <v>0</v>
-      </c>
-      <c r="K77" s="25">
+      <c r="G77" s="24">
+        <v>0</v>
+      </c>
+      <c r="H77" s="24">
+        <v>0</v>
+      </c>
+      <c r="I77" s="24">
+        <v>0</v>
+      </c>
+      <c r="J77" s="24">
+        <v>0</v>
+      </c>
+      <c r="K77" s="24">
         <v>0</v>
       </c>
       <c r="L77" s="22">
@@ -7290,19 +8053,19 @@
       <c r="N77" s="22">
         <v>0</v>
       </c>
-      <c r="O77" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O77" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="53">
         <v>20170607</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="19">
@@ -7338,16 +8101,16 @@
       <c r="N79" s="20">
         <v>7.5634285714285721</v>
       </c>
-      <c r="O79" s="25">
+      <c r="O79" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="52"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="19">
@@ -7356,7 +8119,7 @@
       <c r="E80" s="19">
         <v>90</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F80" s="24">
         <v>0</v>
       </c>
       <c r="G80" s="19">
@@ -7383,16 +8146,16 @@
       <c r="N80" s="20">
         <v>6.8937500000000007</v>
       </c>
-      <c r="O80" s="25">
+      <c r="O80" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="25" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="19">
@@ -7401,7 +8164,7 @@
       <c r="E81" s="19">
         <v>86</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="24">
         <v>0</v>
       </c>
       <c r="G81" s="19">
@@ -7433,11 +8196,11 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="52"/>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="19">
@@ -7446,7 +8209,7 @@
       <c r="E82" s="19">
         <v>16</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="24">
         <v>0</v>
       </c>
       <c r="G82" s="19">
@@ -7455,13 +8218,13 @@
       <c r="H82" s="19">
         <v>1</v>
       </c>
-      <c r="I82" s="25">
-        <v>0</v>
-      </c>
-      <c r="J82" s="25">
-        <v>0</v>
-      </c>
-      <c r="K82" s="25">
+      <c r="I82" s="24">
+        <v>0</v>
+      </c>
+      <c r="J82" s="24">
+        <v>0</v>
+      </c>
+      <c r="K82" s="24">
         <v>0</v>
       </c>
       <c r="L82" s="22">
@@ -7478,11 +8241,11 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="19">
@@ -7500,13 +8263,13 @@
       <c r="H83" s="19">
         <v>1</v>
       </c>
-      <c r="I83" s="25">
-        <v>0</v>
-      </c>
-      <c r="J83" s="25">
-        <v>0</v>
-      </c>
-      <c r="K83" s="25">
+      <c r="I83" s="24">
+        <v>0</v>
+      </c>
+      <c r="J83" s="24">
+        <v>0</v>
+      </c>
+      <c r="K83" s="24">
         <v>0</v>
       </c>
       <c r="L83" s="22">
@@ -7518,16 +8281,16 @@
       <c r="N83" s="22">
         <v>0</v>
       </c>
-      <c r="O83" s="25">
+      <c r="O83" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="52"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D84" s="19">
@@ -7536,22 +8299,22 @@
       <c r="E84" s="19">
         <v>7</v>
       </c>
-      <c r="F84" s="25">
-        <v>0</v>
-      </c>
-      <c r="G84" s="25">
-        <v>0</v>
-      </c>
-      <c r="H84" s="25">
-        <v>0</v>
-      </c>
-      <c r="I84" s="25">
-        <v>0</v>
-      </c>
-      <c r="J84" s="25">
-        <v>0</v>
-      </c>
-      <c r="K84" s="25">
+      <c r="F84" s="24">
+        <v>0</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0</v>
+      </c>
+      <c r="H84" s="24">
+        <v>0</v>
+      </c>
+      <c r="I84" s="24">
+        <v>0</v>
+      </c>
+      <c r="J84" s="24">
+        <v>0</v>
+      </c>
+      <c r="K84" s="24">
         <v>0</v>
       </c>
       <c r="L84" s="22">
@@ -7563,19 +8326,19 @@
       <c r="N84" s="22">
         <v>0</v>
       </c>
-      <c r="O84" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O84" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="52">
+      <c r="A86" s="53">
         <v>20170608</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D86" s="19">
@@ -7616,11 +8379,11 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="52"/>
-      <c r="B87" s="25" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="19">
@@ -7629,7 +8392,7 @@
       <c r="E87" s="19">
         <v>94</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F87" s="24">
         <v>0</v>
       </c>
       <c r="G87" s="19">
@@ -7661,11 +8424,11 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="52"/>
-      <c r="B88" s="25" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="19">
@@ -7674,7 +8437,7 @@
       <c r="E88" s="19">
         <v>59</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F88" s="24">
         <v>0</v>
       </c>
       <c r="G88" s="19">
@@ -7701,16 +8464,16 @@
       <c r="N88" s="20">
         <v>5.235555555555556</v>
       </c>
-      <c r="O88" s="25">
+      <c r="O88" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="25" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="19">
@@ -7719,7 +8482,7 @@
       <c r="E89" s="19">
         <v>24</v>
       </c>
-      <c r="F89" s="25">
+      <c r="F89" s="24">
         <v>0</v>
       </c>
       <c r="G89" s="19">
@@ -7751,11 +8514,11 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="52"/>
-      <c r="B90" s="25" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D90" s="19">
@@ -7764,7 +8527,7 @@
       <c r="E90" s="19">
         <v>26</v>
       </c>
-      <c r="F90" s="25">
+      <c r="F90" s="24">
         <v>0</v>
       </c>
       <c r="G90" s="19">
@@ -7773,13 +8536,13 @@
       <c r="H90" s="19">
         <v>1</v>
       </c>
-      <c r="I90" s="25">
-        <v>0</v>
-      </c>
-      <c r="J90" s="25">
-        <v>0</v>
-      </c>
-      <c r="K90" s="25">
+      <c r="I90" s="24">
+        <v>0</v>
+      </c>
+      <c r="J90" s="24">
+        <v>0</v>
+      </c>
+      <c r="K90" s="24">
         <v>0</v>
       </c>
       <c r="L90" s="22">
@@ -7791,16 +8554,16 @@
       <c r="N90" s="22">
         <v>0</v>
       </c>
-      <c r="O90" s="25">
+      <c r="O90" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="25" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D91" s="19">
@@ -7809,22 +8572,22 @@
       <c r="E91" s="19">
         <v>34</v>
       </c>
-      <c r="F91" s="25">
-        <v>0</v>
-      </c>
-      <c r="G91" s="25">
-        <v>0</v>
-      </c>
-      <c r="H91" s="25">
-        <v>0</v>
-      </c>
-      <c r="I91" s="25">
-        <v>0</v>
-      </c>
-      <c r="J91" s="25">
-        <v>0</v>
-      </c>
-      <c r="K91" s="25">
+      <c r="F91" s="24">
+        <v>0</v>
+      </c>
+      <c r="G91" s="24">
+        <v>0</v>
+      </c>
+      <c r="H91" s="24">
+        <v>0</v>
+      </c>
+      <c r="I91" s="24">
+        <v>0</v>
+      </c>
+      <c r="J91" s="24">
+        <v>0</v>
+      </c>
+      <c r="K91" s="24">
         <v>0</v>
       </c>
       <c r="L91" s="22">
@@ -7836,19 +8599,19 @@
       <c r="N91" s="22">
         <v>0</v>
       </c>
-      <c r="O91" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O91" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="53">
         <v>20170609</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="19">
@@ -7884,16 +8647,16 @@
       <c r="N93" s="20">
         <v>3.804383561643836</v>
       </c>
-      <c r="O93" s="25">
+      <c r="O93" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="52"/>
-      <c r="B94" s="25" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D94" s="19">
@@ -7929,16 +8692,16 @@
       <c r="N94" s="20">
         <v>3.2282926829268295</v>
       </c>
-      <c r="O94" s="25">
+      <c r="O94" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="25" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="19">
@@ -7947,7 +8710,7 @@
       <c r="E95" s="19">
         <v>77</v>
       </c>
-      <c r="F95" s="25">
+      <c r="F95" s="24">
         <v>0</v>
       </c>
       <c r="G95" s="19">
@@ -7974,16 +8737,16 @@
       <c r="N95" s="20">
         <v>5.2985714285714289</v>
       </c>
-      <c r="O95" s="25">
+      <c r="O95" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="52"/>
-      <c r="B96" s="25" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D96" s="19">
@@ -7992,7 +8755,7 @@
       <c r="E96" s="19">
         <v>95</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="24">
         <v>0</v>
       </c>
       <c r="G96" s="19">
@@ -8019,16 +8782,16 @@
       <c r="N96" s="20">
         <v>11.285925925925925</v>
       </c>
-      <c r="O96" s="25">
+      <c r="O96" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="19">
@@ -8037,7 +8800,7 @@
       <c r="E97" s="19">
         <v>12</v>
       </c>
-      <c r="F97" s="25">
+      <c r="F97" s="24">
         <v>0</v>
       </c>
       <c r="G97" s="19">
@@ -8046,13 +8809,13 @@
       <c r="H97" s="19">
         <v>3</v>
       </c>
-      <c r="I97" s="25">
-        <v>0</v>
-      </c>
-      <c r="J97" s="25">
-        <v>0</v>
-      </c>
-      <c r="K97" s="25">
+      <c r="I97" s="24">
+        <v>0</v>
+      </c>
+      <c r="J97" s="24">
+        <v>0</v>
+      </c>
+      <c r="K97" s="24">
         <v>0</v>
       </c>
       <c r="L97" s="22">
@@ -8069,11 +8832,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="52"/>
-      <c r="B98" s="25" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="19">
@@ -8091,13 +8854,13 @@
       <c r="H98" s="19">
         <v>1</v>
       </c>
-      <c r="I98" s="25">
-        <v>0</v>
-      </c>
-      <c r="J98" s="25">
-        <v>0</v>
-      </c>
-      <c r="K98" s="25">
+      <c r="I98" s="24">
+        <v>0</v>
+      </c>
+      <c r="J98" s="24">
+        <v>0</v>
+      </c>
+      <c r="K98" s="24">
         <v>0</v>
       </c>
       <c r="L98" s="22">
@@ -8109,19 +8872,19 @@
       <c r="N98" s="22">
         <v>0</v>
       </c>
-      <c r="O98" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O98" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="52">
+      <c r="A100" s="53">
         <v>20170610</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="19">
@@ -8130,7 +8893,7 @@
       <c r="E100" s="19">
         <v>70</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="24">
         <v>0</v>
       </c>
       <c r="G100" s="19">
@@ -8157,16 +8920,16 @@
       <c r="N100" s="20">
         <v>5.2230303030303036</v>
       </c>
-      <c r="O100" s="25">
+      <c r="O100" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="52"/>
-      <c r="B101" s="25" t="s">
+      <c r="A101" s="53"/>
+      <c r="B101" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="19">
@@ -8175,7 +8938,7 @@
       <c r="E101" s="19">
         <v>101</v>
       </c>
-      <c r="F101" s="25">
+      <c r="F101" s="24">
         <v>0</v>
       </c>
       <c r="G101" s="19">
@@ -8207,11 +8970,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="52"/>
-      <c r="B102" s="25" t="s">
+      <c r="A102" s="53"/>
+      <c r="B102" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D102" s="19">
@@ -8220,7 +8983,7 @@
       <c r="E102" s="19">
         <v>48</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="24">
         <v>0</v>
       </c>
       <c r="G102" s="19">
@@ -8247,16 +9010,16 @@
       <c r="N102" s="20">
         <v>4.4241666666666672</v>
       </c>
-      <c r="O102" s="25">
+      <c r="O102" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="25" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D103" s="19">
@@ -8265,22 +9028,22 @@
       <c r="E103" s="19">
         <v>41</v>
       </c>
-      <c r="F103" s="25">
-        <v>0</v>
-      </c>
-      <c r="G103" s="25">
-        <v>0</v>
-      </c>
-      <c r="H103" s="25">
-        <v>0</v>
-      </c>
-      <c r="I103" s="25">
-        <v>0</v>
-      </c>
-      <c r="J103" s="25">
-        <v>0</v>
-      </c>
-      <c r="K103" s="25">
+      <c r="F103" s="24">
+        <v>0</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0</v>
+      </c>
+      <c r="H103" s="24">
+        <v>0</v>
+      </c>
+      <c r="I103" s="24">
+        <v>0</v>
+      </c>
+      <c r="J103" s="24">
+        <v>0</v>
+      </c>
+      <c r="K103" s="24">
         <v>0</v>
       </c>
       <c r="L103" s="22">
@@ -8292,16 +9055,16 @@
       <c r="N103" s="22">
         <v>0</v>
       </c>
-      <c r="O103" s="25">
+      <c r="O103" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="52"/>
-      <c r="B104" s="25" t="s">
+      <c r="A104" s="53"/>
+      <c r="B104" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D104" s="19">
@@ -8310,7 +9073,7 @@
       <c r="E104" s="19">
         <v>59</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="24">
         <v>0</v>
       </c>
       <c r="G104" s="19">
@@ -8319,13 +9082,13 @@
       <c r="H104" s="19">
         <v>6</v>
       </c>
-      <c r="I104" s="25">
-        <v>0</v>
-      </c>
-      <c r="J104" s="25">
-        <v>0</v>
-      </c>
-      <c r="K104" s="25">
+      <c r="I104" s="24">
+        <v>0</v>
+      </c>
+      <c r="J104" s="24">
+        <v>0</v>
+      </c>
+      <c r="K104" s="24">
         <v>0</v>
       </c>
       <c r="L104" s="22">
@@ -8342,11 +9105,11 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="25" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D105" s="19">
@@ -8355,22 +9118,22 @@
       <c r="E105" s="19">
         <v>11</v>
       </c>
-      <c r="F105" s="25">
-        <v>0</v>
-      </c>
-      <c r="G105" s="25">
-        <v>0</v>
-      </c>
-      <c r="H105" s="25">
-        <v>0</v>
-      </c>
-      <c r="I105" s="25">
-        <v>0</v>
-      </c>
-      <c r="J105" s="25">
-        <v>0</v>
-      </c>
-      <c r="K105" s="25">
+      <c r="F105" s="24">
+        <v>0</v>
+      </c>
+      <c r="G105" s="24">
+        <v>0</v>
+      </c>
+      <c r="H105" s="24">
+        <v>0</v>
+      </c>
+      <c r="I105" s="24">
+        <v>0</v>
+      </c>
+      <c r="J105" s="24">
+        <v>0</v>
+      </c>
+      <c r="K105" s="24">
         <v>0</v>
       </c>
       <c r="L105" s="22">
@@ -8382,19 +9145,19 @@
       <c r="N105" s="22">
         <v>0</v>
       </c>
-      <c r="O105" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O105" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="53">
         <v>20170611</v>
       </c>
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D107" s="19">
@@ -8403,7 +9166,7 @@
       <c r="E107" s="19">
         <v>40</v>
       </c>
-      <c r="F107" s="25">
+      <c r="F107" s="24">
         <v>0</v>
       </c>
       <c r="G107" s="19">
@@ -8435,11 +9198,11 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
-      <c r="B108" s="25" t="s">
+      <c r="A108" s="53"/>
+      <c r="B108" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D108" s="19">
@@ -8448,7 +9211,7 @@
       <c r="E108" s="19">
         <v>11</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="24">
         <v>0</v>
       </c>
       <c r="G108" s="19">
@@ -8475,16 +9238,16 @@
       <c r="N108" s="20">
         <v>4.875</v>
       </c>
-      <c r="O108" s="25">
+      <c r="O108" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="25" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="19">
@@ -8493,7 +9256,7 @@
       <c r="E109" s="19">
         <v>45</v>
       </c>
-      <c r="F109" s="25">
+      <c r="F109" s="24">
         <v>0</v>
       </c>
       <c r="G109" s="19">
@@ -8502,13 +9265,13 @@
       <c r="H109" s="19">
         <v>2</v>
       </c>
-      <c r="I109" s="25">
-        <v>0</v>
-      </c>
-      <c r="J109" s="25">
-        <v>0</v>
-      </c>
-      <c r="K109" s="25">
+      <c r="I109" s="24">
+        <v>0</v>
+      </c>
+      <c r="J109" s="24">
+        <v>0</v>
+      </c>
+      <c r="K109" s="24">
         <v>0</v>
       </c>
       <c r="L109" s="22">
@@ -8525,11 +9288,11 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
-      <c r="B110" s="25" t="s">
+      <c r="A110" s="53"/>
+      <c r="B110" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D110" s="19">
@@ -8538,7 +9301,7 @@
       <c r="E110" s="19">
         <v>45</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="24">
         <v>0</v>
       </c>
       <c r="G110" s="19">
@@ -8547,13 +9310,13 @@
       <c r="H110" s="19">
         <v>3</v>
       </c>
-      <c r="I110" s="25">
-        <v>0</v>
-      </c>
-      <c r="J110" s="25">
-        <v>0</v>
-      </c>
-      <c r="K110" s="25">
+      <c r="I110" s="24">
+        <v>0</v>
+      </c>
+      <c r="J110" s="24">
+        <v>0</v>
+      </c>
+      <c r="K110" s="24">
         <v>0</v>
       </c>
       <c r="L110" s="22">
@@ -8570,11 +9333,11 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="25" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="19">
@@ -8583,7 +9346,7 @@
       <c r="E111" s="19">
         <v>45</v>
       </c>
-      <c r="F111" s="25">
+      <c r="F111" s="24">
         <v>0</v>
       </c>
       <c r="G111" s="19">
@@ -8592,13 +9355,13 @@
       <c r="H111" s="19">
         <v>3</v>
       </c>
-      <c r="I111" s="25">
-        <v>0</v>
-      </c>
-      <c r="J111" s="25">
-        <v>0</v>
-      </c>
-      <c r="K111" s="25">
+      <c r="I111" s="24">
+        <v>0</v>
+      </c>
+      <c r="J111" s="24">
+        <v>0</v>
+      </c>
+      <c r="K111" s="24">
         <v>0</v>
       </c>
       <c r="L111" s="22">
@@ -8615,11 +9378,11 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="52"/>
-      <c r="B112" s="25" t="s">
+      <c r="A112" s="53"/>
+      <c r="B112" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D112" s="19">
@@ -8628,22 +9391,22 @@
       <c r="E112" s="19">
         <v>21</v>
       </c>
-      <c r="F112" s="25">
-        <v>0</v>
-      </c>
-      <c r="G112" s="25">
-        <v>0</v>
-      </c>
-      <c r="H112" s="25">
-        <v>0</v>
-      </c>
-      <c r="I112" s="25">
-        <v>0</v>
-      </c>
-      <c r="J112" s="25">
-        <v>0</v>
-      </c>
-      <c r="K112" s="25">
+      <c r="F112" s="24">
+        <v>0</v>
+      </c>
+      <c r="G112" s="24">
+        <v>0</v>
+      </c>
+      <c r="H112" s="24">
+        <v>0</v>
+      </c>
+      <c r="I112" s="24">
+        <v>0</v>
+      </c>
+      <c r="J112" s="24">
+        <v>0</v>
+      </c>
+      <c r="K112" s="24">
         <v>0</v>
       </c>
       <c r="L112" s="22">
@@ -8655,19 +9418,19 @@
       <c r="N112" s="22">
         <v>0</v>
       </c>
-      <c r="O112" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O112" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="52">
+      <c r="A114" s="53">
         <v>20170612</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D114" s="19">
@@ -8703,16 +9466,16 @@
       <c r="N114" s="20">
         <v>5.0715151515151522</v>
       </c>
-      <c r="O114" s="25">
+      <c r="O114" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="52"/>
-      <c r="B115" s="25" t="s">
+      <c r="A115" s="53"/>
+      <c r="B115" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D115" s="19">
@@ -8721,13 +9484,13 @@
       <c r="E115" s="19">
         <v>35</v>
       </c>
-      <c r="F115" s="25">
-        <v>0</v>
-      </c>
-      <c r="G115" s="25">
-        <v>0</v>
-      </c>
-      <c r="H115" s="25">
+      <c r="F115" s="24">
+        <v>0</v>
+      </c>
+      <c r="G115" s="24">
+        <v>0</v>
+      </c>
+      <c r="H115" s="24">
         <v>0</v>
       </c>
       <c r="I115" s="19">
@@ -8748,16 +9511,16 @@
       <c r="N115" s="20">
         <v>8.9172727272727279</v>
       </c>
-      <c r="O115" s="25">
+      <c r="O115" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="52"/>
-      <c r="B116" s="25" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D116" s="19">
@@ -8793,16 +9556,16 @@
       <c r="N116" s="20">
         <v>1.7886486486486488</v>
       </c>
-      <c r="O116" s="25">
+      <c r="O116" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A117" s="52"/>
-      <c r="B117" s="25" t="s">
+      <c r="A117" s="53"/>
+      <c r="B117" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D117" s="19">
@@ -8811,7 +9574,7 @@
       <c r="E117" s="19">
         <v>23</v>
       </c>
-      <c r="F117" s="25">
+      <c r="F117" s="24">
         <v>0</v>
       </c>
       <c r="G117" s="19">
@@ -8838,16 +9601,16 @@
       <c r="N117" s="20">
         <v>4.7612500000000004</v>
       </c>
-      <c r="O117" s="25">
+      <c r="O117" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="52"/>
-      <c r="B118" s="25" t="s">
+      <c r="A118" s="53"/>
+      <c r="B118" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D118" s="19">
@@ -8856,7 +9619,7 @@
       <c r="E118" s="19">
         <v>77</v>
       </c>
-      <c r="F118" s="25">
+      <c r="F118" s="24">
         <v>0</v>
       </c>
       <c r="G118" s="19">
@@ -8883,16 +9646,16 @@
       <c r="N118" s="20">
         <v>1.7415789473684213</v>
       </c>
-      <c r="O118" s="25">
+      <c r="O118" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A119" s="52"/>
-      <c r="B119" s="25" t="s">
+      <c r="A119" s="53"/>
+      <c r="B119" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D119" s="19">
@@ -8901,22 +9664,22 @@
       <c r="E119" s="19">
         <v>8</v>
       </c>
-      <c r="F119" s="25">
-        <v>0</v>
-      </c>
-      <c r="G119" s="25">
-        <v>0</v>
-      </c>
-      <c r="H119" s="25">
-        <v>0</v>
-      </c>
-      <c r="I119" s="25">
-        <v>0</v>
-      </c>
-      <c r="J119" s="25">
-        <v>0</v>
-      </c>
-      <c r="K119" s="25">
+      <c r="F119" s="24">
+        <v>0</v>
+      </c>
+      <c r="G119" s="24">
+        <v>0</v>
+      </c>
+      <c r="H119" s="24">
+        <v>0</v>
+      </c>
+      <c r="I119" s="24">
+        <v>0</v>
+      </c>
+      <c r="J119" s="24">
+        <v>0</v>
+      </c>
+      <c r="K119" s="24">
         <v>0</v>
       </c>
       <c r="L119" s="22">
@@ -8928,19 +9691,19 @@
       <c r="N119" s="22">
         <v>0</v>
       </c>
-      <c r="O119" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O119" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="52">
+      <c r="A121" s="53">
         <v>20170613</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D121" s="19">
@@ -8976,16 +9739,16 @@
       <c r="N121" s="20">
         <v>7.6953488372093029</v>
       </c>
-      <c r="O121" s="25">
+      <c r="O121" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="52"/>
-      <c r="B122" s="25" t="s">
+      <c r="A122" s="53"/>
+      <c r="B122" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D122" s="19">
@@ -8994,7 +9757,7 @@
       <c r="E122" s="19">
         <v>86</v>
       </c>
-      <c r="F122" s="25">
+      <c r="F122" s="24">
         <v>0</v>
       </c>
       <c r="G122" s="19">
@@ -9026,11 +9789,11 @@
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="52"/>
-      <c r="B123" s="25" t="s">
+      <c r="A123" s="53"/>
+      <c r="B123" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D123" s="19">
@@ -9039,7 +9802,7 @@
       <c r="E123" s="19">
         <v>75</v>
       </c>
-      <c r="F123" s="25">
+      <c r="F123" s="24">
         <v>0</v>
       </c>
       <c r="G123" s="19">
@@ -9066,16 +9829,16 @@
       <c r="N123" s="20">
         <v>7.386857142857143</v>
       </c>
-      <c r="O123" s="25">
+      <c r="O123" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="52"/>
-      <c r="B124" s="25" t="s">
+      <c r="A124" s="53"/>
+      <c r="B124" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D124" s="19">
@@ -9084,7 +9847,7 @@
       <c r="E124" s="19">
         <v>27</v>
       </c>
-      <c r="F124" s="25">
+      <c r="F124" s="24">
         <v>0</v>
       </c>
       <c r="G124" s="19">
@@ -9111,16 +9874,16 @@
       <c r="N124" s="20">
         <v>2.4375</v>
       </c>
-      <c r="O124" s="25">
+      <c r="O124" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="52"/>
-      <c r="B125" s="25" t="s">
+      <c r="A125" s="53"/>
+      <c r="B125" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D125" s="19">
@@ -9129,7 +9892,7 @@
       <c r="E125" s="19">
         <v>37</v>
       </c>
-      <c r="F125" s="25">
+      <c r="F125" s="24">
         <v>0</v>
       </c>
       <c r="G125" s="19">
@@ -9161,11 +9924,11 @@
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="52"/>
-      <c r="B126" s="25" t="s">
+      <c r="A126" s="53"/>
+      <c r="B126" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D126" s="19">
@@ -9183,13 +9946,13 @@
       <c r="H126" s="19">
         <v>1</v>
       </c>
-      <c r="I126" s="25">
-        <v>0</v>
-      </c>
-      <c r="J126" s="25">
-        <v>0</v>
-      </c>
-      <c r="K126" s="25">
+      <c r="I126" s="24">
+        <v>0</v>
+      </c>
+      <c r="J126" s="24">
+        <v>0</v>
+      </c>
+      <c r="K126" s="24">
         <v>0</v>
       </c>
       <c r="L126" s="22">
@@ -9201,19 +9964,19 @@
       <c r="N126" s="22">
         <v>0</v>
       </c>
-      <c r="O126" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O126" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A128" s="52">
+      <c r="A128" s="53">
         <v>20170618</v>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D128" s="19">
@@ -9222,7 +9985,7 @@
       <c r="E128" s="19">
         <v>112</v>
       </c>
-      <c r="F128" s="25">
+      <c r="F128" s="24">
         <v>0</v>
       </c>
       <c r="G128" s="19">
@@ -9249,16 +10012,16 @@
       <c r="N128" s="20">
         <v>8.5256521739130431</v>
       </c>
-      <c r="O128" s="25">
+      <c r="O128" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A129" s="52"/>
-      <c r="B129" s="25" t="s">
+      <c r="A129" s="53"/>
+      <c r="B129" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D129" s="19">
@@ -9267,7 +10030,7 @@
       <c r="E129" s="19">
         <v>191</v>
       </c>
-      <c r="F129" s="25">
+      <c r="F129" s="24">
         <v>0</v>
       </c>
       <c r="G129" s="19">
@@ -9294,16 +10057,16 @@
       <c r="N129" s="20">
         <v>2.5572222222222223</v>
       </c>
-      <c r="O129" s="25">
+      <c r="O129" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A130" s="52"/>
-      <c r="B130" s="25" t="s">
+      <c r="A130" s="53"/>
+      <c r="B130" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D130" s="19">
@@ -9312,7 +10075,7 @@
       <c r="E130" s="19">
         <v>76</v>
       </c>
-      <c r="F130" s="25">
+      <c r="F130" s="24">
         <v>0</v>
       </c>
       <c r="G130" s="19">
@@ -9344,11 +10107,11 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A131" s="52"/>
-      <c r="B131" s="25" t="s">
+      <c r="A131" s="53"/>
+      <c r="B131" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D131" s="19">
@@ -9384,16 +10147,16 @@
       <c r="N131" s="20">
         <v>6.5</v>
       </c>
-      <c r="O131" s="25">
+      <c r="O131" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A132" s="52"/>
-      <c r="B132" s="25" t="s">
+      <c r="A132" s="53"/>
+      <c r="B132" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D132" s="19">
@@ -9402,7 +10165,7 @@
       <c r="E132" s="19">
         <v>93</v>
       </c>
-      <c r="F132" s="25">
+      <c r="F132" s="24">
         <v>0</v>
       </c>
       <c r="G132" s="19">
@@ -9429,16 +10192,16 @@
       <c r="N132" s="20">
         <v>1.6829268292682926</v>
       </c>
-      <c r="O132" s="25">
+      <c r="O132" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A133" s="52"/>
-      <c r="B133" s="25" t="s">
+      <c r="A133" s="53"/>
+      <c r="B133" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D133" s="19">
@@ -9447,7 +10210,7 @@
       <c r="E133" s="19">
         <v>77</v>
       </c>
-      <c r="F133" s="25">
+      <c r="F133" s="24">
         <v>0</v>
       </c>
       <c r="G133" s="19">
@@ -9456,13 +10219,13 @@
       <c r="H133" s="19">
         <v>2</v>
       </c>
-      <c r="I133" s="25">
-        <v>0</v>
-      </c>
-      <c r="J133" s="25">
-        <v>0</v>
-      </c>
-      <c r="K133" s="25">
+      <c r="I133" s="24">
+        <v>0</v>
+      </c>
+      <c r="J133" s="24">
+        <v>0</v>
+      </c>
+      <c r="K133" s="24">
         <v>0</v>
       </c>
       <c r="L133" s="22">
@@ -9474,19 +10237,19 @@
       <c r="N133" s="22">
         <v>0</v>
       </c>
-      <c r="O133" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O133" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A135" s="52">
+      <c r="A135" s="53">
         <v>20170619</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D135" s="19">
@@ -9495,7 +10258,7 @@
       <c r="E135" s="19">
         <v>125</v>
       </c>
-      <c r="F135" s="25">
+      <c r="F135" s="24">
         <v>0</v>
       </c>
       <c r="G135" s="19">
@@ -9522,16 +10285,16 @@
       <c r="N135" s="20">
         <v>8.0489189189189201</v>
       </c>
-      <c r="O135" s="25">
+      <c r="O135" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A136" s="52"/>
-      <c r="B136" s="25" t="s">
+      <c r="A136" s="53"/>
+      <c r="B136" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D136" s="19">
@@ -9572,11 +10335,11 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A137" s="52"/>
-      <c r="B137" s="25" t="s">
+      <c r="A137" s="53"/>
+      <c r="B137" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D137" s="19">
@@ -9585,7 +10348,7 @@
       <c r="E137" s="19">
         <v>55</v>
       </c>
-      <c r="F137" s="25">
+      <c r="F137" s="24">
         <v>0</v>
       </c>
       <c r="G137" s="19">
@@ -9612,16 +10375,16 @@
       <c r="N137" s="20">
         <v>14.219310344827587</v>
       </c>
-      <c r="O137" s="25">
+      <c r="O137" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A138" s="52"/>
-      <c r="B138" s="25" t="s">
+      <c r="A138" s="53"/>
+      <c r="B138" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D138" s="19">
@@ -9630,7 +10393,7 @@
       <c r="E138" s="19">
         <v>52</v>
       </c>
-      <c r="F138" s="25">
+      <c r="F138" s="24">
         <v>0</v>
       </c>
       <c r="G138" s="19">
@@ -9657,16 +10420,16 @@
       <c r="N138" s="20">
         <v>4.7271428571428569</v>
       </c>
-      <c r="O138" s="25">
+      <c r="O138" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A139" s="52"/>
-      <c r="B139" s="25" t="s">
+      <c r="A139" s="53"/>
+      <c r="B139" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D139" s="19">
@@ -9675,7 +10438,7 @@
       <c r="E139" s="19">
         <v>27</v>
       </c>
-      <c r="F139" s="25">
+      <c r="F139" s="24">
         <v>0</v>
       </c>
       <c r="G139" s="19">
@@ -9684,13 +10447,13 @@
       <c r="H139" s="19">
         <v>2</v>
       </c>
-      <c r="I139" s="25">
-        <v>0</v>
-      </c>
-      <c r="J139" s="25">
-        <v>0</v>
-      </c>
-      <c r="K139" s="25">
+      <c r="I139" s="24">
+        <v>0</v>
+      </c>
+      <c r="J139" s="24">
+        <v>0</v>
+      </c>
+      <c r="K139" s="24">
         <v>0</v>
       </c>
       <c r="L139" s="22">
@@ -9702,16 +10465,16 @@
       <c r="N139" s="22">
         <v>0</v>
       </c>
-      <c r="O139" s="25">
+      <c r="O139" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A140" s="52"/>
-      <c r="B140" s="25" t="s">
+      <c r="A140" s="53"/>
+      <c r="B140" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D140" s="19">
@@ -9729,13 +10492,13 @@
       <c r="H140" s="19">
         <v>5</v>
       </c>
-      <c r="I140" s="25">
-        <v>0</v>
-      </c>
-      <c r="J140" s="25">
-        <v>0</v>
-      </c>
-      <c r="K140" s="25">
+      <c r="I140" s="24">
+        <v>0</v>
+      </c>
+      <c r="J140" s="24">
+        <v>0</v>
+      </c>
+      <c r="K140" s="24">
         <v>0</v>
       </c>
       <c r="L140" s="22">
@@ -9747,13 +10510,560 @@
       <c r="N140" s="22">
         <v>0</v>
       </c>
-      <c r="O140" s="25">
-        <v>0</v>
+      <c r="O140" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A142" s="53">
+        <v>20170620</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" s="19">
+        <v>65</v>
+      </c>
+      <c r="E142" s="19">
+        <v>112</v>
+      </c>
+      <c r="F142" s="24">
+        <v>0</v>
+      </c>
+      <c r="G142" s="19">
+        <v>13</v>
+      </c>
+      <c r="H142" s="19">
+        <v>10</v>
+      </c>
+      <c r="I142" s="19">
+        <v>6</v>
+      </c>
+      <c r="J142" s="19">
+        <v>6</v>
+      </c>
+      <c r="K142" s="19">
+        <v>6</v>
+      </c>
+      <c r="L142" s="20">
+        <v>420</v>
+      </c>
+      <c r="M142" s="21">
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="N142" s="20">
+        <v>6.4615384615384617</v>
+      </c>
+      <c r="O142" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A143" s="53"/>
+      <c r="B143" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="19">
+        <v>10</v>
+      </c>
+      <c r="E143" s="19">
+        <v>18</v>
+      </c>
+      <c r="F143" s="24">
+        <v>0</v>
+      </c>
+      <c r="G143" s="19">
+        <v>1</v>
+      </c>
+      <c r="H143" s="19">
+        <v>1</v>
+      </c>
+      <c r="I143" s="19">
+        <v>2</v>
+      </c>
+      <c r="J143" s="19">
+        <v>2</v>
+      </c>
+      <c r="K143" s="19">
+        <v>2</v>
+      </c>
+      <c r="L143" s="20">
+        <v>78</v>
+      </c>
+      <c r="M143" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="N143" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="O143" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A144" s="53"/>
+      <c r="B144" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D144" s="19">
+        <v>34</v>
+      </c>
+      <c r="E144" s="19">
+        <v>81</v>
+      </c>
+      <c r="F144" s="24">
+        <v>0</v>
+      </c>
+      <c r="G144" s="19">
+        <v>5</v>
+      </c>
+      <c r="H144" s="19">
+        <v>5</v>
+      </c>
+      <c r="I144" s="19">
+        <v>1</v>
+      </c>
+      <c r="J144" s="19">
+        <v>1</v>
+      </c>
+      <c r="K144" s="19">
+        <v>1</v>
+      </c>
+      <c r="L144" s="20">
+        <v>79</v>
+      </c>
+      <c r="M144" s="21">
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="N144" s="20">
+        <v>2.3235294117647061</v>
+      </c>
+      <c r="O144" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A145" s="53"/>
+      <c r="B145" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145" s="19">
+        <v>26</v>
+      </c>
+      <c r="E145" s="19">
+        <v>45</v>
+      </c>
+      <c r="F145" s="19">
+        <v>1</v>
+      </c>
+      <c r="G145" s="19">
+        <v>1</v>
+      </c>
+      <c r="H145" s="19">
+        <v>1</v>
+      </c>
+      <c r="I145" s="24">
+        <v>0</v>
+      </c>
+      <c r="J145" s="24">
+        <v>0</v>
+      </c>
+      <c r="K145" s="24">
+        <v>0</v>
+      </c>
+      <c r="L145" s="22">
+        <v>0</v>
+      </c>
+      <c r="M145" s="21">
+        <v>0</v>
+      </c>
+      <c r="N145" s="22">
+        <v>0</v>
+      </c>
+      <c r="O145" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A146" s="53"/>
+      <c r="B146" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" s="19">
+        <v>36</v>
+      </c>
+      <c r="E146" s="19">
+        <v>47</v>
+      </c>
+      <c r="F146" s="24">
+        <v>0</v>
+      </c>
+      <c r="G146" s="24">
+        <v>0</v>
+      </c>
+      <c r="H146" s="24">
+        <v>0</v>
+      </c>
+      <c r="I146" s="24">
+        <v>0</v>
+      </c>
+      <c r="J146" s="24">
+        <v>0</v>
+      </c>
+      <c r="K146" s="24">
+        <v>0</v>
+      </c>
+      <c r="L146" s="22">
+        <v>0</v>
+      </c>
+      <c r="M146" s="21">
+        <v>0</v>
+      </c>
+      <c r="N146" s="22">
+        <v>0</v>
+      </c>
+      <c r="O146" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A147" s="53"/>
+      <c r="B147" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D147" s="19">
+        <v>31</v>
+      </c>
+      <c r="E147" s="19">
+        <v>63</v>
+      </c>
+      <c r="F147" s="24">
+        <v>0</v>
+      </c>
+      <c r="G147" s="19">
+        <v>3</v>
+      </c>
+      <c r="H147" s="19">
+        <v>3</v>
+      </c>
+      <c r="I147" s="24">
+        <v>0</v>
+      </c>
+      <c r="J147" s="24">
+        <v>0</v>
+      </c>
+      <c r="K147" s="24">
+        <v>0</v>
+      </c>
+      <c r="L147" s="22">
+        <v>0</v>
+      </c>
+      <c r="M147" s="21">
+        <v>0</v>
+      </c>
+      <c r="N147" s="22">
+        <v>0</v>
+      </c>
+      <c r="O147" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A149" s="53">
+        <v>20170622</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" s="19">
+        <v>49</v>
+      </c>
+      <c r="E149" s="19">
+        <v>73</v>
+      </c>
+      <c r="F149" s="19">
+        <v>1</v>
+      </c>
+      <c r="G149" s="19">
+        <v>5</v>
+      </c>
+      <c r="H149" s="19">
+        <v>5</v>
+      </c>
+      <c r="I149" s="19">
+        <v>7</v>
+      </c>
+      <c r="J149" s="19">
+        <v>7</v>
+      </c>
+      <c r="K149" s="19">
+        <v>8</v>
+      </c>
+      <c r="L149" s="20">
+        <v>560</v>
+      </c>
+      <c r="M149" s="21">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N149" s="20">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="O149" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A150" s="53"/>
+      <c r="B150" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="19">
+        <v>33</v>
+      </c>
+      <c r="E150" s="19">
+        <v>66</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0</v>
+      </c>
+      <c r="G150" s="19">
+        <v>1</v>
+      </c>
+      <c r="H150" s="19">
+        <v>1</v>
+      </c>
+      <c r="I150" s="19">
+        <v>2</v>
+      </c>
+      <c r="J150" s="19">
+        <v>2</v>
+      </c>
+      <c r="K150" s="19">
+        <v>2</v>
+      </c>
+      <c r="L150" s="20">
+        <v>188</v>
+      </c>
+      <c r="M150" s="21">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="N150" s="20">
+        <v>5.6969696969696972</v>
+      </c>
+      <c r="O150" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A151" s="53"/>
+      <c r="B151" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D151" s="19">
+        <v>15</v>
+      </c>
+      <c r="E151" s="19">
+        <v>37</v>
+      </c>
+      <c r="F151" s="24">
+        <v>0</v>
+      </c>
+      <c r="G151" s="19">
+        <v>2</v>
+      </c>
+      <c r="H151" s="19">
+        <v>2</v>
+      </c>
+      <c r="I151" s="19">
+        <v>2</v>
+      </c>
+      <c r="J151" s="19">
+        <v>2</v>
+      </c>
+      <c r="K151" s="19">
+        <v>2</v>
+      </c>
+      <c r="L151" s="20">
+        <v>132</v>
+      </c>
+      <c r="M151" s="21">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N151" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O151" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A152" s="53"/>
+      <c r="B152" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152" s="19">
+        <v>24</v>
+      </c>
+      <c r="E152" s="19">
+        <v>33</v>
+      </c>
+      <c r="F152" s="24">
+        <v>0</v>
+      </c>
+      <c r="G152" s="24">
+        <v>0</v>
+      </c>
+      <c r="H152" s="24">
+        <v>0</v>
+      </c>
+      <c r="I152" s="24">
+        <v>0</v>
+      </c>
+      <c r="J152" s="24">
+        <v>0</v>
+      </c>
+      <c r="K152" s="24">
+        <v>0</v>
+      </c>
+      <c r="L152" s="22">
+        <v>0</v>
+      </c>
+      <c r="M152" s="21">
+        <v>0</v>
+      </c>
+      <c r="N152" s="22">
+        <v>0</v>
+      </c>
+      <c r="O152" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A153" s="53"/>
+      <c r="B153" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="19">
+        <v>28</v>
+      </c>
+      <c r="E153" s="19">
+        <v>43</v>
+      </c>
+      <c r="F153" s="24">
+        <v>0</v>
+      </c>
+      <c r="G153" s="19">
+        <v>1</v>
+      </c>
+      <c r="H153" s="19">
+        <v>1</v>
+      </c>
+      <c r="I153" s="24">
+        <v>0</v>
+      </c>
+      <c r="J153" s="24">
+        <v>0</v>
+      </c>
+      <c r="K153" s="24">
+        <v>0</v>
+      </c>
+      <c r="L153" s="22">
+        <v>0</v>
+      </c>
+      <c r="M153" s="21">
+        <v>0</v>
+      </c>
+      <c r="N153" s="22">
+        <v>0</v>
+      </c>
+      <c r="O153" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A154" s="53"/>
+      <c r="B154" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" s="19">
+        <v>10</v>
+      </c>
+      <c r="E154" s="19">
+        <v>11</v>
+      </c>
+      <c r="F154" s="24">
+        <v>0</v>
+      </c>
+      <c r="G154" s="19">
+        <v>1</v>
+      </c>
+      <c r="H154" s="19">
+        <v>1</v>
+      </c>
+      <c r="I154" s="24">
+        <v>0</v>
+      </c>
+      <c r="J154" s="24">
+        <v>0</v>
+      </c>
+      <c r="K154" s="24">
+        <v>0</v>
+      </c>
+      <c r="L154" s="22">
+        <v>0</v>
+      </c>
+      <c r="M154" s="21">
+        <v>0</v>
+      </c>
+      <c r="N154" s="22">
+        <v>0</v>
+      </c>
+      <c r="O154" s="19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O77"/>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="A149:A154"/>
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="A86:A91"/>
     <mergeCell ref="A135:A140"/>
@@ -9774,67 +11084,74 @@
     <mergeCell ref="A107:A112"/>
     <mergeCell ref="A121:A126"/>
     <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B7">
+    <cfRule type="duplicateValues" dxfId="22" priority="23" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B14">
+    <cfRule type="duplicateValues" dxfId="21" priority="22" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B21">
     <cfRule type="duplicateValues" dxfId="20" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B14">
+  <conditionalFormatting sqref="B23:B28">
     <cfRule type="duplicateValues" dxfId="19" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
+  <conditionalFormatting sqref="B30:B35">
     <cfRule type="duplicateValues" dxfId="18" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B28">
+  <conditionalFormatting sqref="B37:B42">
     <cfRule type="duplicateValues" dxfId="17" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B35">
+  <conditionalFormatting sqref="B44:B49">
     <cfRule type="duplicateValues" dxfId="16" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B42">
+  <conditionalFormatting sqref="B51:B56">
     <cfRule type="duplicateValues" dxfId="15" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B49">
+  <conditionalFormatting sqref="B58:B63">
     <cfRule type="duplicateValues" dxfId="14" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B56">
+  <conditionalFormatting sqref="B65:B70">
     <cfRule type="duplicateValues" dxfId="13" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B63">
+  <conditionalFormatting sqref="B72:B77">
     <cfRule type="duplicateValues" dxfId="12" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B70">
+  <conditionalFormatting sqref="B79:B84">
     <cfRule type="duplicateValues" dxfId="11" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B77">
+  <conditionalFormatting sqref="B86:B91">
     <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B84">
+  <conditionalFormatting sqref="B93:B98">
     <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B91">
+  <conditionalFormatting sqref="B100:B105">
     <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B98">
-    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B105">
-    <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B107:B112">
-    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B119">
+    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B126">
+    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B133">
     <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B126">
+  <conditionalFormatting sqref="B135:B140">
     <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B133">
+  <conditionalFormatting sqref="B142:B147">
     <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B140">
+  <conditionalFormatting sqref="B149:B154">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10006,7 +11323,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="6"/>
@@ -10028,7 +11345,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
@@ -10043,14 +11360,14 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -10065,11 +11382,11 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="G6" s="7" t="s">
         <v>92</v>
       </c>
@@ -10102,1062 +11419,1062 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="32"/>
-    <col min="8" max="8" width="11.25" style="32" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="40" customWidth="1"/>
-    <col min="11" max="11" width="9" style="32"/>
-    <col min="12" max="12" width="10.875" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="10.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="31"/>
+    <col min="8" max="8" width="11.25" style="31" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9" style="31"/>
+    <col min="12" max="12" width="10.875" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="30">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="29">
         <v>3936</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <f>G2</f>
         <v>3936</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>42870</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>12456482736</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <v>89</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>5</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <f>H2-F3-G3</f>
         <v>3842</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>42872</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>54276538733</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>277</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <f t="shared" ref="H4:H31" si="0">H3-F4-G4</f>
         <v>3560</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30">
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>42872</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>59310700736</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>69</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>5</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>3486</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>42874</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>89</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>5</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>3392</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>42874</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>89</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>5</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>3298</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>42875</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>89</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>5</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>3204</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
+      <c r="A9" s="56">
         <v>42877</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>89</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>5</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>3110</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>11670113841</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>79</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="55">
+      <c r="A11" s="56">
         <v>42878</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>89</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>5</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>2932</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>208</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>5</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
         <v>2719</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>69</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>5</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
         <v>2645</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>42879</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>277</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>5</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
         <v>2363</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="56">
         <v>42880</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>79</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>5</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <f t="shared" si="0"/>
         <v>2279</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>89</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <v>5</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <f t="shared" si="0"/>
         <v>2185</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>79</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>7</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <f t="shared" si="0"/>
         <v>2099</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>89</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>7</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>89</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>7</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <f t="shared" si="0"/>
         <v>1907</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>79</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>7</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30">
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56">
+      <c r="A21" s="57">
         <v>42881</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>277</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>7</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <f t="shared" si="0"/>
         <v>1537</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <v>20170529</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="41" t="s">
+      <c r="K21" s="45"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>69</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>7</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <f t="shared" si="0"/>
         <v>1461</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="30">
         <v>20170530</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>208</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>7</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <f t="shared" si="0"/>
         <v>1246</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <v>20170529</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <v>79</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>7</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f t="shared" si="0"/>
         <v>1160</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>89</v>
       </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="37">
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="36">
         <f t="shared" si="0"/>
         <v>1071</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <v>20170529</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="54">
+      <c r="A26" s="55">
         <v>20170527</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <v>208</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>7</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <f t="shared" si="0"/>
         <v>856</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="30">
         <v>20170528</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30">
+      <c r="J26" s="30"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>79</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>7</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="54">
+      <c r="A28" s="55">
         <v>20170602</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="45" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="29">
         <v>89</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>7</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <v>238</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>10</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>79</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>7</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="29">
         <v>20170604</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>208</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>7</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="29" t="s">
         <v>114</v>
       </c>
     </row>
